--- a/app/libfiles/ZE标准IO_CMM103.xlsx
+++ b/app/libfiles/ZE标准IO_CMM103.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="225" windowWidth="14805" windowHeight="7890" tabRatio="796" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="225" windowWidth="14805" windowHeight="7890" tabRatio="796" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="机器信息" sheetId="6" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="615" uniqueCount="542">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="617" uniqueCount="544">
   <si>
     <t>Temperature Input(温度输入)</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -2180,6 +2180,13 @@
   </si>
   <si>
     <t>CMM102改CMM103</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Heater zone 7</t>
+  </si>
+  <si>
+    <t>加热七区</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2187,7 +2194,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2235,13 +2242,6 @@
       <name val="宋体"/>
       <family val="3"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0" tint="-0.249977111117893"/>
-      <name val="宋体"/>
-      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -2404,7 +2404,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="71">
+  <cellXfs count="70">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2433,11 +2433,10 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2452,36 +2451,9 @@
     <xf numFmtId="49" fontId="4" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -2500,18 +2472,45 @@
     <xf numFmtId="49" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -4918,22 +4917,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A1" s="30" t="s">
+      <c r="A1" s="29" t="s">
         <v>494</v>
       </c>
-      <c r="B1" s="30" t="s">
+      <c r="B1" s="29" t="s">
         <v>495</v>
       </c>
-      <c r="C1" s="30" t="s">
+      <c r="C1" s="29" t="s">
         <v>496</v>
       </c>
-      <c r="D1" s="30" t="s">
+      <c r="D1" s="29" t="s">
         <v>499</v>
       </c>
-      <c r="E1" s="30" t="s">
+      <c r="E1" s="29" t="s">
         <v>497</v>
       </c>
-      <c r="F1" s="30" t="s">
+      <c r="F1" s="29" t="s">
         <v>498</v>
       </c>
     </row>
@@ -4955,59 +4954,59 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="17.25" style="30" customWidth="1"/>
-    <col min="2" max="2" width="19.25" style="30" customWidth="1"/>
-    <col min="3" max="3" width="17.125" style="30" customWidth="1"/>
-    <col min="4" max="4" width="10.75" style="30" customWidth="1"/>
-    <col min="5" max="5" width="22.375" style="30" customWidth="1"/>
+    <col min="1" max="1" width="17.25" style="29" customWidth="1"/>
+    <col min="2" max="2" width="19.25" style="29" customWidth="1"/>
+    <col min="3" max="3" width="17.125" style="29" customWidth="1"/>
+    <col min="4" max="4" width="10.75" style="29" customWidth="1"/>
+    <col min="5" max="5" width="22.375" style="29" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A1" s="30" t="s">
+      <c r="A1" s="29" t="s">
         <v>452</v>
       </c>
-      <c r="B1" s="30" t="s">
+      <c r="B1" s="29" t="s">
         <v>448</v>
       </c>
-      <c r="C1" s="30" t="s">
+      <c r="C1" s="29" t="s">
         <v>449</v>
       </c>
-      <c r="D1" s="30" t="s">
+      <c r="D1" s="29" t="s">
         <v>450</v>
       </c>
-      <c r="E1" s="30" t="s">
+      <c r="E1" s="29" t="s">
         <v>451</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A2" s="30" t="s">
+      <c r="A2" s="29" t="s">
         <v>453</v>
       </c>
-      <c r="B2" s="30" t="s">
+      <c r="B2" s="29" t="s">
         <v>505</v>
       </c>
-      <c r="C2" s="31"/>
-      <c r="D2" s="30" t="s">
+      <c r="C2" s="30"/>
+      <c r="D2" s="29" t="s">
         <v>454</v>
       </c>
-      <c r="E2" s="30" t="s">
+      <c r="E2" s="29" t="s">
         <v>455</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A3" s="30" t="s">
+      <c r="A3" s="29" t="s">
         <v>538</v>
       </c>
-      <c r="B3" s="30" t="s">
+      <c r="B3" s="29" t="s">
         <v>539</v>
       </c>
-      <c r="C3" s="30" t="s">
+      <c r="C3" s="29" t="s">
         <v>453</v>
       </c>
-      <c r="D3" s="30" t="s">
+      <c r="D3" s="29" t="s">
         <v>540</v>
       </c>
-      <c r="E3" s="30" t="s">
+      <c r="E3" s="29" t="s">
         <v>541</v>
       </c>
     </row>
@@ -5021,9 +5020,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D54"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C10" sqref="C10"/>
+      <selection pane="bottomLeft" activeCell="B45" sqref="B45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -5034,366 +5033,366 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A1" s="25" t="s">
+      <c r="A1" s="24" t="s">
         <v>436</v>
       </c>
-      <c r="B1" s="25" t="s">
+      <c r="B1" s="24" t="s">
         <v>437</v>
       </c>
-      <c r="C1" s="25" t="s">
+      <c r="C1" s="24" t="s">
         <v>438</v>
       </c>
-      <c r="D1" s="26" t="s">
+      <c r="D1" s="25" t="s">
         <v>439</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A2" s="27" t="s">
+      <c r="A2" s="26" t="s">
         <v>440</v>
       </c>
-      <c r="B2" s="26"/>
-      <c r="C2" s="26"/>
-      <c r="D2" s="26"/>
+      <c r="B2" s="25"/>
+      <c r="C2" s="25"/>
+      <c r="D2" s="25"/>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A3" s="26" t="s">
+      <c r="A3" s="25" t="s">
         <v>441</v>
       </c>
-      <c r="B3" s="26" t="s">
+      <c r="B3" s="25" t="s">
         <v>442</v>
       </c>
-      <c r="C3" s="26" t="s">
+      <c r="C3" s="25" t="s">
         <v>443</v>
       </c>
-      <c r="D3" s="26" t="s">
+      <c r="D3" s="25" t="s">
         <v>444</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A4" s="26"/>
-      <c r="B4" s="26"/>
-      <c r="C4" s="26"/>
-      <c r="D4" s="26"/>
+      <c r="A4" s="25"/>
+      <c r="B4" s="25"/>
+      <c r="C4" s="25"/>
+      <c r="D4" s="25"/>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A5" s="27" t="s">
+      <c r="A5" s="26" t="s">
         <v>240</v>
       </c>
-      <c r="B5" s="26"/>
-      <c r="C5" s="26"/>
-      <c r="D5" s="26"/>
+      <c r="B5" s="25"/>
+      <c r="C5" s="25"/>
+      <c r="D5" s="25"/>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A6" s="26" t="s">
+      <c r="A6" s="25" t="s">
         <v>518</v>
       </c>
-      <c r="B6" s="26" t="s">
+      <c r="B6" s="25" t="s">
         <v>445</v>
       </c>
-      <c r="C6" s="26" t="s">
+      <c r="C6" s="25" t="s">
         <v>519</v>
       </c>
-      <c r="D6" s="26" t="s">
+      <c r="D6" s="25" t="s">
         <v>444</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A7" s="26"/>
-      <c r="B7" s="26"/>
-      <c r="C7" s="26"/>
-      <c r="D7" s="26"/>
+      <c r="A7" s="25"/>
+      <c r="B7" s="25"/>
+      <c r="C7" s="25"/>
+      <c r="D7" s="25"/>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A8" s="27" t="s">
+      <c r="A8" s="26" t="s">
         <v>504</v>
       </c>
-      <c r="B8" s="26"/>
-      <c r="C8" s="26"/>
-      <c r="D8" s="26"/>
+      <c r="B8" s="25"/>
+      <c r="C8" s="25"/>
+      <c r="D8" s="25"/>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A9" s="26"/>
-      <c r="B9" s="26"/>
-      <c r="C9" s="26"/>
-      <c r="D9" s="26"/>
+      <c r="A9" s="25"/>
+      <c r="B9" s="25"/>
+      <c r="C9" s="25"/>
+      <c r="D9" s="25"/>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A10" s="27" t="s">
+      <c r="A10" s="26" t="s">
         <v>239</v>
       </c>
-      <c r="B10" s="26"/>
-      <c r="C10" s="26"/>
-      <c r="D10" s="26"/>
+      <c r="B10" s="25"/>
+      <c r="C10" s="25"/>
+      <c r="D10" s="25"/>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A11" s="26"/>
-      <c r="B11" s="26"/>
-      <c r="C11" s="26"/>
-      <c r="D11" s="26"/>
+      <c r="A11" s="25"/>
+      <c r="B11" s="25"/>
+      <c r="C11" s="25"/>
+      <c r="D11" s="25"/>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A12" s="27" t="s">
+      <c r="A12" s="26" t="s">
         <v>241</v>
       </c>
-      <c r="B12" s="26"/>
-      <c r="C12" s="26"/>
-      <c r="D12" s="26"/>
+      <c r="B12" s="25"/>
+      <c r="C12" s="25"/>
+      <c r="D12" s="25"/>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A13" s="26"/>
-      <c r="B13" s="26"/>
-      <c r="C13" s="26"/>
-      <c r="D13" s="26"/>
+      <c r="A13" s="25"/>
+      <c r="B13" s="25"/>
+      <c r="C13" s="25"/>
+      <c r="D13" s="25"/>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A14" s="27" t="s">
+      <c r="A14" s="26" t="s">
         <v>446</v>
       </c>
-      <c r="B14" s="26"/>
-      <c r="C14" s="26"/>
-      <c r="D14" s="26"/>
+      <c r="B14" s="25"/>
+      <c r="C14" s="25"/>
+      <c r="D14" s="25"/>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A15" s="26"/>
-      <c r="B15" s="26"/>
-      <c r="C15" s="26"/>
-      <c r="D15" s="26"/>
+      <c r="A15" s="25"/>
+      <c r="B15" s="25"/>
+      <c r="C15" s="25"/>
+      <c r="D15" s="25"/>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A16" s="27" t="s">
+      <c r="A16" s="26" t="s">
         <v>447</v>
       </c>
-      <c r="B16" s="26"/>
-      <c r="C16" s="26"/>
-      <c r="D16" s="26"/>
+      <c r="B16" s="25"/>
+      <c r="C16" s="25"/>
+      <c r="D16" s="25"/>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A17" s="26"/>
-      <c r="B17" s="26"/>
-      <c r="C17" s="26"/>
-      <c r="D17" s="26"/>
+      <c r="A17" s="25"/>
+      <c r="B17" s="25"/>
+      <c r="C17" s="25"/>
+      <c r="D17" s="25"/>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A18" s="26"/>
-      <c r="B18" s="26"/>
-      <c r="C18" s="26"/>
-      <c r="D18" s="26"/>
+      <c r="A18" s="25"/>
+      <c r="B18" s="25"/>
+      <c r="C18" s="25"/>
+      <c r="D18" s="25"/>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A19" s="26"/>
-      <c r="B19" s="26"/>
-      <c r="C19" s="26"/>
-      <c r="D19" s="26"/>
+      <c r="A19" s="25"/>
+      <c r="B19" s="25"/>
+      <c r="C19" s="25"/>
+      <c r="D19" s="25"/>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A20" s="26"/>
-      <c r="B20" s="26"/>
-      <c r="C20" s="26"/>
-      <c r="D20" s="26"/>
+      <c r="A20" s="25"/>
+      <c r="B20" s="25"/>
+      <c r="C20" s="25"/>
+      <c r="D20" s="25"/>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A21" s="26"/>
-      <c r="B21" s="26"/>
-      <c r="C21" s="26"/>
-      <c r="D21" s="26"/>
+      <c r="A21" s="25"/>
+      <c r="B21" s="25"/>
+      <c r="C21" s="25"/>
+      <c r="D21" s="25"/>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A22" s="26"/>
-      <c r="B22" s="26"/>
-      <c r="C22" s="26"/>
-      <c r="D22" s="26"/>
+      <c r="A22" s="25"/>
+      <c r="B22" s="25"/>
+      <c r="C22" s="25"/>
+      <c r="D22" s="25"/>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A23" s="26"/>
-      <c r="B23" s="26"/>
-      <c r="C23" s="26"/>
-      <c r="D23" s="26"/>
+      <c r="A23" s="25"/>
+      <c r="B23" s="25"/>
+      <c r="C23" s="25"/>
+      <c r="D23" s="25"/>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A24" s="26"/>
-      <c r="B24" s="26"/>
-      <c r="C24" s="26"/>
-      <c r="D24" s="26"/>
+      <c r="A24" s="25"/>
+      <c r="B24" s="25"/>
+      <c r="C24" s="25"/>
+      <c r="D24" s="25"/>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A25" s="26"/>
-      <c r="B25" s="26"/>
-      <c r="C25" s="26"/>
-      <c r="D25" s="26"/>
+      <c r="A25" s="25"/>
+      <c r="B25" s="25"/>
+      <c r="C25" s="25"/>
+      <c r="D25" s="25"/>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A26" s="26"/>
-      <c r="B26" s="26"/>
-      <c r="C26" s="26"/>
-      <c r="D26" s="26"/>
+      <c r="A26" s="25"/>
+      <c r="B26" s="25"/>
+      <c r="C26" s="25"/>
+      <c r="D26" s="25"/>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A27" s="26"/>
-      <c r="B27" s="26"/>
-      <c r="C27" s="26"/>
-      <c r="D27" s="26"/>
+      <c r="A27" s="25"/>
+      <c r="B27" s="25"/>
+      <c r="C27" s="25"/>
+      <c r="D27" s="25"/>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A28" s="26"/>
-      <c r="B28" s="26"/>
-      <c r="C28" s="26"/>
-      <c r="D28" s="26"/>
+      <c r="A28" s="25"/>
+      <c r="B28" s="25"/>
+      <c r="C28" s="25"/>
+      <c r="D28" s="25"/>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A29" s="26"/>
-      <c r="B29" s="26"/>
-      <c r="C29" s="26"/>
-      <c r="D29" s="26"/>
+      <c r="A29" s="25"/>
+      <c r="B29" s="25"/>
+      <c r="C29" s="25"/>
+      <c r="D29" s="25"/>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A30" s="26"/>
-      <c r="B30" s="26"/>
-      <c r="C30" s="26"/>
-      <c r="D30" s="26"/>
+      <c r="A30" s="25"/>
+      <c r="B30" s="25"/>
+      <c r="C30" s="25"/>
+      <c r="D30" s="25"/>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A31" s="26"/>
-      <c r="B31" s="26"/>
-      <c r="C31" s="26"/>
-      <c r="D31" s="26"/>
+      <c r="A31" s="25"/>
+      <c r="B31" s="25"/>
+      <c r="C31" s="25"/>
+      <c r="D31" s="25"/>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A32" s="26"/>
-      <c r="B32" s="26"/>
-      <c r="C32" s="26"/>
-      <c r="D32" s="26"/>
+      <c r="A32" s="25"/>
+      <c r="B32" s="25"/>
+      <c r="C32" s="25"/>
+      <c r="D32" s="25"/>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A33" s="26"/>
-      <c r="B33" s="26"/>
-      <c r="C33" s="26"/>
-      <c r="D33" s="26"/>
+      <c r="A33" s="25"/>
+      <c r="B33" s="25"/>
+      <c r="C33" s="25"/>
+      <c r="D33" s="25"/>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A34" s="26"/>
-      <c r="B34" s="26"/>
-      <c r="C34" s="26"/>
-      <c r="D34" s="26"/>
+      <c r="A34" s="25"/>
+      <c r="B34" s="25"/>
+      <c r="C34" s="25"/>
+      <c r="D34" s="25"/>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A35" s="26"/>
-      <c r="B35" s="26"/>
-      <c r="C35" s="26"/>
-      <c r="D35" s="26"/>
+      <c r="A35" s="25"/>
+      <c r="B35" s="25"/>
+      <c r="C35" s="25"/>
+      <c r="D35" s="25"/>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A36" s="26"/>
-      <c r="B36" s="26"/>
-      <c r="C36" s="26"/>
-      <c r="D36" s="26"/>
+      <c r="A36" s="25"/>
+      <c r="B36" s="25"/>
+      <c r="C36" s="25"/>
+      <c r="D36" s="25"/>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A37" s="26"/>
-      <c r="B37" s="26"/>
-      <c r="C37" s="26"/>
-      <c r="D37" s="26"/>
+      <c r="A37" s="25"/>
+      <c r="B37" s="25"/>
+      <c r="C37" s="25"/>
+      <c r="D37" s="25"/>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A38" s="26"/>
-      <c r="B38" s="26"/>
-      <c r="C38" s="26"/>
-      <c r="D38" s="26"/>
+      <c r="A38" s="25"/>
+      <c r="B38" s="25"/>
+      <c r="C38" s="25"/>
+      <c r="D38" s="25"/>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A39" s="26"/>
-      <c r="B39" s="26"/>
-      <c r="C39" s="26"/>
-      <c r="D39" s="26"/>
+      <c r="A39" s="25"/>
+      <c r="B39" s="25"/>
+      <c r="C39" s="25"/>
+      <c r="D39" s="25"/>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A40" s="26"/>
-      <c r="B40" s="26"/>
-      <c r="C40" s="26"/>
-      <c r="D40" s="26"/>
+      <c r="A40" s="25"/>
+      <c r="B40" s="25"/>
+      <c r="C40" s="25"/>
+      <c r="D40" s="25"/>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A41" s="26"/>
-      <c r="B41" s="26"/>
-      <c r="C41" s="26"/>
-      <c r="D41" s="26"/>
+      <c r="A41" s="25"/>
+      <c r="B41" s="25"/>
+      <c r="C41" s="25"/>
+      <c r="D41" s="25"/>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A42" s="26"/>
-      <c r="B42" s="26"/>
-      <c r="C42" s="26"/>
-      <c r="D42" s="26"/>
+      <c r="A42" s="25"/>
+      <c r="B42" s="25"/>
+      <c r="C42" s="25"/>
+      <c r="D42" s="25"/>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A43" s="26"/>
-      <c r="B43" s="26"/>
-      <c r="C43" s="26"/>
-      <c r="D43" s="26"/>
+      <c r="A43" s="25"/>
+      <c r="B43" s="25"/>
+      <c r="C43" s="25"/>
+      <c r="D43" s="25"/>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A44" s="26"/>
-      <c r="B44" s="26"/>
-      <c r="C44" s="26"/>
-      <c r="D44" s="26"/>
+      <c r="A44" s="25"/>
+      <c r="B44" s="25"/>
+      <c r="C44" s="25"/>
+      <c r="D44" s="25"/>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A45" s="26"/>
-      <c r="B45" s="26"/>
-      <c r="C45" s="26"/>
-      <c r="D45" s="26"/>
+      <c r="A45" s="25"/>
+      <c r="B45" s="25"/>
+      <c r="C45" s="25"/>
+      <c r="D45" s="25"/>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A46" s="26"/>
-      <c r="B46" s="26"/>
-      <c r="C46" s="26"/>
-      <c r="D46" s="26"/>
+      <c r="A46" s="25"/>
+      <c r="B46" s="25"/>
+      <c r="C46" s="25"/>
+      <c r="D46" s="25"/>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A47" s="26"/>
-      <c r="B47" s="26"/>
-      <c r="C47" s="26"/>
-      <c r="D47" s="26"/>
+      <c r="A47" s="25"/>
+      <c r="B47" s="25"/>
+      <c r="C47" s="25"/>
+      <c r="D47" s="25"/>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A48" s="26"/>
-      <c r="B48" s="26"/>
-      <c r="C48" s="26"/>
-      <c r="D48" s="26"/>
+      <c r="A48" s="25"/>
+      <c r="B48" s="25"/>
+      <c r="C48" s="25"/>
+      <c r="D48" s="25"/>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A49" s="26"/>
-      <c r="B49" s="26"/>
-      <c r="C49" s="26"/>
-      <c r="D49" s="26"/>
+      <c r="A49" s="25"/>
+      <c r="B49" s="25"/>
+      <c r="C49" s="25"/>
+      <c r="D49" s="25"/>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A50" s="26"/>
-      <c r="B50" s="26"/>
-      <c r="C50" s="26"/>
-      <c r="D50" s="26"/>
+      <c r="A50" s="25"/>
+      <c r="B50" s="25"/>
+      <c r="C50" s="25"/>
+      <c r="D50" s="25"/>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A51" s="26"/>
-      <c r="B51" s="26"/>
-      <c r="C51" s="26"/>
-      <c r="D51" s="26"/>
+      <c r="A51" s="25"/>
+      <c r="B51" s="25"/>
+      <c r="C51" s="25"/>
+      <c r="D51" s="25"/>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A52" s="26"/>
-      <c r="B52" s="26"/>
-      <c r="C52" s="26"/>
-      <c r="D52" s="26"/>
+      <c r="A52" s="25"/>
+      <c r="B52" s="25"/>
+      <c r="C52" s="25"/>
+      <c r="D52" s="25"/>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A53" s="26"/>
-      <c r="B53" s="26"/>
-      <c r="C53" s="26"/>
-      <c r="D53" s="26"/>
+      <c r="A53" s="25"/>
+      <c r="B53" s="25"/>
+      <c r="C53" s="25"/>
+      <c r="D53" s="25"/>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A54" s="26"/>
-      <c r="B54" s="26"/>
-      <c r="C54" s="26"/>
-      <c r="D54" s="26"/>
+      <c r="A54" s="25"/>
+      <c r="B54" s="25"/>
+      <c r="C54" s="25"/>
+      <c r="D54" s="25"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -5422,178 +5421,178 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A1" s="45" t="s">
+      <c r="A1" s="48" t="s">
         <v>477</v>
       </c>
-      <c r="B1" s="45"/>
-      <c r="C1" s="45"/>
-      <c r="D1" s="45"/>
-      <c r="E1" s="30" t="s">
+      <c r="B1" s="48"/>
+      <c r="C1" s="48"/>
+      <c r="D1" s="48"/>
+      <c r="E1" s="29" t="s">
         <v>478</v>
       </c>
-      <c r="F1" s="30" t="s">
+      <c r="F1" s="29" t="s">
         <v>479</v>
       </c>
-      <c r="G1" s="30" t="s">
+      <c r="G1" s="29" t="s">
         <v>480</v>
       </c>
-      <c r="H1" s="30" t="s">
+      <c r="H1" s="29" t="s">
         <v>481</v>
       </c>
-      <c r="I1" s="30" t="s">
+      <c r="I1" s="29" t="s">
         <v>482</v>
       </c>
-      <c r="J1" s="30" t="s">
+      <c r="J1" s="29" t="s">
         <v>483</v>
       </c>
-      <c r="K1" s="30" t="s">
+      <c r="K1" s="29" t="s">
         <v>484</v>
       </c>
-      <c r="L1" s="30" t="s">
+      <c r="L1" s="29" t="s">
         <v>485</v>
       </c>
-      <c r="M1" s="30" t="s">
+      <c r="M1" s="29" t="s">
         <v>486</v>
       </c>
-      <c r="N1" s="30" t="s">
+      <c r="N1" s="29" t="s">
         <v>487</v>
       </c>
-      <c r="O1" s="30" t="s">
+      <c r="O1" s="29" t="s">
         <v>488</v>
       </c>
     </row>
     <row r="2" spans="1:15" ht="15" x14ac:dyDescent="0.25">
-      <c r="A2" s="32" t="s">
+      <c r="A2" s="31" t="s">
         <v>456</v>
       </c>
-      <c r="B2" s="33"/>
-      <c r="C2" s="34"/>
-      <c r="D2" s="35"/>
+      <c r="B2" s="32"/>
+      <c r="C2" s="33"/>
+      <c r="D2" s="34"/>
     </row>
     <row r="3" spans="1:15" ht="15" x14ac:dyDescent="0.25">
-      <c r="A3" s="36" t="s">
+      <c r="A3" s="35" t="s">
         <v>457</v>
       </c>
-      <c r="B3" s="33"/>
-      <c r="C3" s="34"/>
-      <c r="D3" s="35"/>
+      <c r="B3" s="32"/>
+      <c r="C3" s="33"/>
+      <c r="D3" s="34"/>
     </row>
     <row r="4" spans="1:15" ht="15" x14ac:dyDescent="0.25">
-      <c r="A4" s="42" t="s">
+      <c r="A4" s="45" t="s">
         <v>458</v>
       </c>
-      <c r="B4" s="43"/>
-      <c r="C4" s="43"/>
-      <c r="D4" s="44"/>
+      <c r="B4" s="46"/>
+      <c r="C4" s="46"/>
+      <c r="D4" s="47"/>
     </row>
     <row r="5" spans="1:15" ht="15" x14ac:dyDescent="0.25">
-      <c r="A5" s="36" t="s">
+      <c r="A5" s="35" t="s">
         <v>459</v>
       </c>
-      <c r="B5" s="33"/>
-      <c r="C5" s="34"/>
-      <c r="D5" s="35"/>
+      <c r="B5" s="32"/>
+      <c r="C5" s="33"/>
+      <c r="D5" s="34"/>
     </row>
     <row r="6" spans="1:15" ht="15" x14ac:dyDescent="0.25">
-      <c r="A6" s="37" t="s">
+      <c r="A6" s="36" t="s">
         <v>460</v>
       </c>
-      <c r="B6" s="37"/>
-      <c r="C6" s="37"/>
-      <c r="D6" s="37"/>
+      <c r="B6" s="36"/>
+      <c r="C6" s="36"/>
+      <c r="D6" s="36"/>
     </row>
     <row r="7" spans="1:15" ht="15" x14ac:dyDescent="0.25">
-      <c r="A7" s="36" t="s">
+      <c r="A7" s="35" t="s">
         <v>461</v>
       </c>
-      <c r="B7" s="33"/>
-      <c r="C7" s="34"/>
-      <c r="D7" s="35"/>
+      <c r="B7" s="32"/>
+      <c r="C7" s="33"/>
+      <c r="D7" s="34"/>
     </row>
     <row r="8" spans="1:15" ht="15" x14ac:dyDescent="0.25">
-      <c r="A8" s="42" t="s">
+      <c r="A8" s="45" t="s">
         <v>462</v>
       </c>
-      <c r="B8" s="43"/>
-      <c r="C8" s="43"/>
-      <c r="D8" s="46"/>
-      <c r="E8" s="38" t="s">
+      <c r="B8" s="46"/>
+      <c r="C8" s="46"/>
+      <c r="D8" s="49"/>
+      <c r="E8" s="37" t="s">
         <v>489</v>
       </c>
-      <c r="F8" s="38" t="s">
+      <c r="F8" s="37" t="s">
         <v>493</v>
       </c>
-      <c r="G8" s="38" t="s">
+      <c r="G8" s="37" t="s">
         <v>490</v>
       </c>
-      <c r="H8" s="38" t="s">
+      <c r="H8" s="37" t="s">
         <v>491</v>
       </c>
-      <c r="I8" s="38" t="s">
+      <c r="I8" s="37" t="s">
         <v>492</v>
       </c>
-      <c r="J8" s="39"/>
-      <c r="K8" s="39"/>
-      <c r="L8" s="39"/>
-      <c r="M8" s="39"/>
-      <c r="N8" s="39"/>
-      <c r="O8" s="39"/>
+      <c r="J8" s="38"/>
+      <c r="K8" s="38"/>
+      <c r="L8" s="38"/>
+      <c r="M8" s="38"/>
+      <c r="N8" s="38"/>
+      <c r="O8" s="38"/>
     </row>
     <row r="9" spans="1:15" ht="15" x14ac:dyDescent="0.25">
-      <c r="A9" s="36" t="s">
+      <c r="A9" s="35" t="s">
         <v>463</v>
       </c>
-      <c r="B9" s="33"/>
-      <c r="C9" s="34"/>
-      <c r="D9" s="35"/>
+      <c r="B9" s="32"/>
+      <c r="C9" s="33"/>
+      <c r="D9" s="34"/>
     </row>
     <row r="10" spans="1:15" ht="15" x14ac:dyDescent="0.25">
-      <c r="A10" s="37" t="s">
+      <c r="A10" s="36" t="s">
         <v>464</v>
       </c>
-      <c r="B10" s="37"/>
-      <c r="C10" s="37"/>
-      <c r="D10" s="37"/>
+      <c r="B10" s="36"/>
+      <c r="C10" s="36"/>
+      <c r="D10" s="36"/>
     </row>
     <row r="11" spans="1:15" ht="15" x14ac:dyDescent="0.25">
-      <c r="A11" s="36" t="s">
+      <c r="A11" s="35" t="s">
         <v>465</v>
       </c>
-      <c r="B11" s="33"/>
-      <c r="C11" s="34"/>
-      <c r="D11" s="35"/>
+      <c r="B11" s="32"/>
+      <c r="C11" s="33"/>
+      <c r="D11" s="34"/>
     </row>
     <row r="12" spans="1:15" ht="15" x14ac:dyDescent="0.25">
-      <c r="A12" s="42" t="s">
+      <c r="A12" s="45" t="s">
         <v>466</v>
       </c>
-      <c r="B12" s="43"/>
-      <c r="C12" s="43"/>
-      <c r="D12" s="44"/>
+      <c r="B12" s="46"/>
+      <c r="C12" s="46"/>
+      <c r="D12" s="47"/>
     </row>
     <row r="13" spans="1:15" ht="15" x14ac:dyDescent="0.25">
-      <c r="A13" s="36" t="s">
+      <c r="A13" s="35" t="s">
         <v>467</v>
       </c>
-      <c r="B13" s="33"/>
-      <c r="C13" s="34"/>
-      <c r="D13" s="35"/>
+      <c r="B13" s="32"/>
+      <c r="C13" s="33"/>
+      <c r="D13" s="34"/>
     </row>
     <row r="14" spans="1:15" ht="15" x14ac:dyDescent="0.25">
-      <c r="A14" s="42" t="s">
+      <c r="A14" s="45" t="s">
         <v>468</v>
       </c>
-      <c r="B14" s="43"/>
-      <c r="C14" s="43"/>
-      <c r="D14" s="44"/>
+      <c r="B14" s="46"/>
+      <c r="C14" s="46"/>
+      <c r="D14" s="47"/>
     </row>
     <row r="15" spans="1:15" ht="15" x14ac:dyDescent="0.25">
-      <c r="A15" s="36" t="s">
+      <c r="A15" s="35" t="s">
         <v>469</v>
       </c>
-      <c r="B15" s="33"/>
-      <c r="C15" s="34"/>
-      <c r="D15" s="35"/>
+      <c r="B15" s="32"/>
+      <c r="C15" s="33"/>
+      <c r="D15" s="34"/>
     </row>
     <row r="16" spans="1:15" ht="15" x14ac:dyDescent="0.25">
       <c r="A16" s="13" t="s">
@@ -5620,20 +5619,20 @@
       <c r="D17" s="4"/>
     </row>
     <row r="18" spans="1:4" ht="15" x14ac:dyDescent="0.25">
-      <c r="A18" s="36" t="s">
+      <c r="A18" s="35" t="s">
         <v>475</v>
       </c>
-      <c r="B18" s="33"/>
-      <c r="C18" s="34"/>
-      <c r="D18" s="35"/>
+      <c r="B18" s="32"/>
+      <c r="C18" s="33"/>
+      <c r="D18" s="34"/>
     </row>
     <row r="19" spans="1:4" ht="15" x14ac:dyDescent="0.25">
-      <c r="A19" s="42" t="s">
+      <c r="A19" s="45" t="s">
         <v>476</v>
       </c>
-      <c r="B19" s="43"/>
-      <c r="C19" s="43"/>
-      <c r="D19" s="44"/>
+      <c r="B19" s="46"/>
+      <c r="C19" s="46"/>
+      <c r="D19" s="47"/>
     </row>
   </sheetData>
   <mergeCells count="6">
@@ -5653,12 +5652,12 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E795"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="4" ySplit="1" topLeftCell="E14" activePane="bottomRight" state="frozenSplit"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="4" ySplit="1" topLeftCell="E188" activePane="bottomRight" state="frozenSplit"/>
       <selection sqref="A1:D1"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B214" sqref="B214"/>
+      <selection pane="bottomRight" activeCell="B202" sqref="B202"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5679,7 +5678,7 @@
       <c r="C1" s="15" t="s">
         <v>64</v>
       </c>
-      <c r="D1" s="29" t="s">
+      <c r="D1" s="28" t="s">
         <v>435</v>
       </c>
     </row>
@@ -5692,12 +5691,12 @@
       <c r="D2" s="21"/>
     </row>
     <row r="3" spans="1:4" ht="13.5" x14ac:dyDescent="0.15">
-      <c r="A3" s="52" t="s">
+      <c r="A3" s="63" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="53"/>
-      <c r="C3" s="53"/>
-      <c r="D3" s="53"/>
+      <c r="B3" s="66"/>
+      <c r="C3" s="66"/>
+      <c r="D3" s="66"/>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
@@ -5711,10 +5710,10 @@
       <c r="A5" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="47" t="s">
+      <c r="B5" s="56" t="s">
         <v>213</v>
       </c>
-      <c r="C5" s="54" t="s">
+      <c r="C5" s="57" t="s">
         <v>8</v>
       </c>
       <c r="D5" s="4"/>
@@ -5723,18 +5722,18 @@
       <c r="A6" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="B6" s="47"/>
-      <c r="C6" s="54"/>
+      <c r="B6" s="56"/>
+      <c r="C6" s="57"/>
       <c r="D6" s="4"/>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="B7" s="47" t="s">
+      <c r="B7" s="56" t="s">
         <v>214</v>
       </c>
-      <c r="C7" s="54" t="s">
+      <c r="C7" s="57" t="s">
         <v>9</v>
       </c>
       <c r="D7" s="4"/>
@@ -5743,18 +5742,18 @@
       <c r="A8" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="B8" s="47"/>
-      <c r="C8" s="54"/>
+      <c r="B8" s="56"/>
+      <c r="C8" s="57"/>
       <c r="D8" s="4"/>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="B9" s="47" t="s">
+      <c r="B9" s="56" t="s">
         <v>215</v>
       </c>
-      <c r="C9" s="54" t="s">
+      <c r="C9" s="57" t="s">
         <v>10</v>
       </c>
       <c r="D9" s="4"/>
@@ -5763,8 +5762,8 @@
       <c r="A10" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="B10" s="47"/>
-      <c r="C10" s="54"/>
+      <c r="B10" s="56"/>
+      <c r="C10" s="57"/>
       <c r="D10" s="4"/>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
@@ -5779,10 +5778,10 @@
       <c r="A12" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="B12" s="47" t="s">
+      <c r="B12" s="56" t="s">
         <v>216</v>
       </c>
-      <c r="C12" s="54" t="s">
+      <c r="C12" s="57" t="s">
         <v>11</v>
       </c>
       <c r="D12" s="4"/>
@@ -5791,18 +5790,18 @@
       <c r="A13" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="B13" s="47"/>
-      <c r="C13" s="54"/>
+      <c r="B13" s="56"/>
+      <c r="C13" s="57"/>
       <c r="D13" s="4"/>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="B14" s="47" t="s">
+      <c r="B14" s="56" t="s">
         <v>217</v>
       </c>
-      <c r="C14" s="54" t="s">
+      <c r="C14" s="57" t="s">
         <v>12</v>
       </c>
       <c r="D14" s="4"/>
@@ -5811,18 +5810,18 @@
       <c r="A15" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="B15" s="47"/>
-      <c r="C15" s="54"/>
+      <c r="B15" s="56"/>
+      <c r="C15" s="57"/>
       <c r="D15" s="4"/>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="B16" s="47" t="s">
+      <c r="B16" s="56" t="s">
         <v>501</v>
       </c>
-      <c r="C16" s="54" t="s">
+      <c r="C16" s="57" t="s">
         <v>500</v>
       </c>
       <c r="D16" s="4"/>
@@ -5831,8 +5830,8 @@
       <c r="A17" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="B17" s="47"/>
-      <c r="C17" s="54"/>
+      <c r="B17" s="56"/>
+      <c r="C17" s="57"/>
       <c r="D17" s="4"/>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
@@ -5847,10 +5846,10 @@
       <c r="A19" s="12" t="s">
         <v>233</v>
       </c>
-      <c r="B19" s="47" t="s">
+      <c r="B19" s="56" t="s">
         <v>434</v>
       </c>
-      <c r="C19" s="54" t="s">
+      <c r="C19" s="57" t="s">
         <v>433</v>
       </c>
       <c r="D19" s="4"/>
@@ -5860,8 +5859,8 @@
       <c r="A20" s="12" t="s">
         <v>234</v>
       </c>
-      <c r="B20" s="47"/>
-      <c r="C20" s="54"/>
+      <c r="B20" s="56"/>
+      <c r="C20" s="57"/>
       <c r="D20" s="4"/>
       <c r="E20" s="23"/>
     </row>
@@ -5869,10 +5868,10 @@
       <c r="A21" s="11" t="s">
         <v>235</v>
       </c>
-      <c r="B21" s="47" t="s">
+      <c r="B21" s="56" t="s">
         <v>242</v>
       </c>
-      <c r="C21" s="54" t="s">
+      <c r="C21" s="57" t="s">
         <v>243</v>
       </c>
       <c r="D21" s="4"/>
@@ -5881,18 +5880,18 @@
       <c r="A22" s="11" t="s">
         <v>236</v>
       </c>
-      <c r="B22" s="47"/>
-      <c r="C22" s="54"/>
+      <c r="B22" s="56"/>
+      <c r="C22" s="57"/>
       <c r="D22" s="4"/>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" s="11" t="s">
         <v>521</v>
       </c>
-      <c r="B23" s="61" t="s">
+      <c r="B23" s="54" t="s">
         <v>522</v>
       </c>
-      <c r="C23" s="62" t="s">
+      <c r="C23" s="55" t="s">
         <v>523</v>
       </c>
       <c r="D23" s="4"/>
@@ -5901,58 +5900,58 @@
       <c r="A24" s="11" t="s">
         <v>524</v>
       </c>
-      <c r="B24" s="61"/>
-      <c r="C24" s="62"/>
+      <c r="B24" s="54"/>
+      <c r="C24" s="55"/>
       <c r="D24" s="4"/>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
         <v>525</v>
       </c>
-      <c r="B25" s="63"/>
-      <c r="C25" s="64"/>
+      <c r="B25" s="41"/>
+      <c r="C25" s="42"/>
       <c r="D25" s="3"/>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" s="11" t="s">
         <v>526</v>
       </c>
-      <c r="B26" s="61"/>
-      <c r="C26" s="62"/>
+      <c r="B26" s="54"/>
+      <c r="C26" s="55"/>
       <c r="D26" s="4"/>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" s="11" t="s">
         <v>527</v>
       </c>
-      <c r="B27" s="61"/>
-      <c r="C27" s="62"/>
+      <c r="B27" s="54"/>
+      <c r="C27" s="55"/>
       <c r="D27" s="4"/>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" s="11" t="s">
         <v>528</v>
       </c>
-      <c r="B28" s="61"/>
-      <c r="C28" s="62"/>
+      <c r="B28" s="54"/>
+      <c r="C28" s="55"/>
       <c r="D28" s="4"/>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" s="11" t="s">
         <v>529</v>
       </c>
-      <c r="B29" s="61"/>
-      <c r="C29" s="62"/>
+      <c r="B29" s="54"/>
+      <c r="C29" s="55"/>
       <c r="D29" s="4"/>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" s="12" t="s">
         <v>237</v>
       </c>
-      <c r="B30" s="58" t="s">
+      <c r="B30" s="61" t="s">
         <v>20</v>
       </c>
-      <c r="C30" s="59" t="s">
+      <c r="C30" s="62" t="s">
         <v>21</v>
       </c>
       <c r="D30" s="4"/>
@@ -5961,17 +5960,17 @@
       <c r="A31" s="12" t="s">
         <v>238</v>
       </c>
-      <c r="B31" s="58"/>
-      <c r="C31" s="59"/>
+      <c r="B31" s="61"/>
+      <c r="C31" s="62"/>
       <c r="D31" s="4"/>
     </row>
     <row r="32" spans="1:5" ht="13.5" x14ac:dyDescent="0.15">
-      <c r="A32" s="52" t="s">
+      <c r="A32" s="63" t="s">
         <v>200</v>
       </c>
-      <c r="B32" s="52"/>
-      <c r="C32" s="52"/>
-      <c r="D32" s="52"/>
+      <c r="B32" s="63"/>
+      <c r="C32" s="63"/>
+      <c r="D32" s="63"/>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="s">
@@ -5997,10 +5996,10 @@
       <c r="A35" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="B35" s="47" t="s">
+      <c r="B35" s="56" t="s">
         <v>244</v>
       </c>
-      <c r="C35" s="60" t="s">
+      <c r="C35" s="64" t="s">
         <v>245</v>
       </c>
       <c r="D35" s="4"/>
@@ -6009,8 +6008,8 @@
       <c r="A36" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="B36" s="47"/>
-      <c r="C36" s="51"/>
+      <c r="B36" s="56"/>
+      <c r="C36" s="65"/>
       <c r="D36" s="4"/>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
@@ -6041,10 +6040,10 @@
       <c r="A39" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="B39" s="47" t="s">
+      <c r="B39" s="56" t="s">
         <v>246</v>
       </c>
-      <c r="C39" s="60" t="s">
+      <c r="C39" s="64" t="s">
         <v>247</v>
       </c>
       <c r="D39" s="4"/>
@@ -6053,8 +6052,8 @@
       <c r="A40" s="14" t="s">
         <v>29</v>
       </c>
-      <c r="B40" s="47"/>
-      <c r="C40" s="51"/>
+      <c r="B40" s="56"/>
+      <c r="C40" s="65"/>
       <c r="D40" s="4"/>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
@@ -6189,10 +6188,10 @@
       <c r="A53" s="14" t="s">
         <v>204</v>
       </c>
-      <c r="B53" s="48" t="s">
+      <c r="B53" s="67" t="s">
         <v>252</v>
       </c>
-      <c r="C53" s="50" t="s">
+      <c r="C53" s="69" t="s">
         <v>253</v>
       </c>
       <c r="D53" s="4"/>
@@ -6201,8 +6200,8 @@
       <c r="A54" s="14" t="s">
         <v>205</v>
       </c>
-      <c r="B54" s="49"/>
-      <c r="C54" s="51"/>
+      <c r="B54" s="68"/>
+      <c r="C54" s="65"/>
       <c r="D54" s="4"/>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.25">
@@ -6233,10 +6232,10 @@
       <c r="A57" s="14" t="s">
         <v>206</v>
       </c>
-      <c r="B57" s="48" t="s">
+      <c r="B57" s="67" t="s">
         <v>254</v>
       </c>
-      <c r="C57" s="50" t="s">
+      <c r="C57" s="69" t="s">
         <v>249</v>
       </c>
       <c r="D57" s="4"/>
@@ -6245,8 +6244,8 @@
       <c r="A58" s="14" t="s">
         <v>207</v>
       </c>
-      <c r="B58" s="49"/>
-      <c r="C58" s="51"/>
+      <c r="B58" s="68"/>
+      <c r="C58" s="65"/>
       <c r="D58" s="4"/>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.25">
@@ -6265,18 +6264,18 @@
       <c r="A60" s="2" t="s">
         <v>530</v>
       </c>
-      <c r="B60" s="63"/>
-      <c r="C60" s="64"/>
+      <c r="B60" s="41"/>
+      <c r="C60" s="42"/>
       <c r="D60" s="3"/>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A61" s="13" t="s">
         <v>531</v>
       </c>
-      <c r="B61" s="65" t="s">
+      <c r="B61" s="43" t="s">
         <v>202</v>
       </c>
-      <c r="C61" s="66" t="s">
+      <c r="C61" s="44" t="s">
         <v>201</v>
       </c>
       <c r="D61" s="4"/>
@@ -6285,26 +6284,26 @@
       <c r="A62" s="14" t="s">
         <v>532</v>
       </c>
-      <c r="B62" s="67"/>
-      <c r="C62" s="68"/>
+      <c r="B62" s="50"/>
+      <c r="C62" s="52"/>
       <c r="D62" s="4"/>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A63" s="14" t="s">
         <v>533</v>
       </c>
-      <c r="B63" s="69"/>
-      <c r="C63" s="70"/>
+      <c r="B63" s="51"/>
+      <c r="C63" s="53"/>
       <c r="D63" s="4"/>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A64" s="13" t="s">
         <v>534</v>
       </c>
-      <c r="B64" s="65" t="s">
+      <c r="B64" s="43" t="s">
         <v>203</v>
       </c>
-      <c r="C64" s="66" t="s">
+      <c r="C64" s="44" t="s">
         <v>534</v>
       </c>
       <c r="D64" s="4"/>
@@ -6313,10 +6312,10 @@
       <c r="A65" s="13" t="s">
         <v>531</v>
       </c>
-      <c r="B65" s="65" t="s">
+      <c r="B65" s="43" t="s">
         <v>202</v>
       </c>
-      <c r="C65" s="66" t="s">
+      <c r="C65" s="44" t="s">
         <v>201</v>
       </c>
       <c r="D65" s="4"/>
@@ -6325,37 +6324,37 @@
       <c r="A66" s="14" t="s">
         <v>535</v>
       </c>
-      <c r="B66" s="67"/>
-      <c r="C66" s="68"/>
+      <c r="B66" s="50"/>
+      <c r="C66" s="52"/>
       <c r="D66" s="4"/>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A67" s="14" t="s">
         <v>536</v>
       </c>
-      <c r="B67" s="69"/>
-      <c r="C67" s="70"/>
+      <c r="B67" s="51"/>
+      <c r="C67" s="53"/>
       <c r="D67" s="4"/>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A68" s="13" t="s">
         <v>534</v>
       </c>
-      <c r="B68" s="65" t="s">
+      <c r="B68" s="43" t="s">
         <v>203</v>
       </c>
-      <c r="C68" s="66" t="s">
+      <c r="C68" s="44" t="s">
         <v>534</v>
       </c>
       <c r="D68" s="4"/>
     </row>
     <row r="69" spans="1:4" ht="13.5" x14ac:dyDescent="0.15">
-      <c r="A69" s="52" t="s">
+      <c r="A69" s="63" t="s">
         <v>36</v>
       </c>
-      <c r="B69" s="52"/>
-      <c r="C69" s="52"/>
-      <c r="D69" s="52"/>
+      <c r="B69" s="63"/>
+      <c r="C69" s="63"/>
+      <c r="D69" s="63"/>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A70" s="2" t="s">
@@ -6429,10 +6428,10 @@
       <c r="A76" s="14" t="s">
         <v>42</v>
       </c>
-      <c r="B76" s="40" t="s">
+      <c r="B76" s="39" t="s">
         <v>506</v>
       </c>
-      <c r="C76" s="41" t="s">
+      <c r="C76" s="40" t="s">
         <v>507</v>
       </c>
       <c r="D76" s="4"/>
@@ -6453,10 +6452,10 @@
       <c r="A78" s="14" t="s">
         <v>44</v>
       </c>
-      <c r="B78" s="40" t="s">
+      <c r="B78" s="39" t="s">
         <v>508</v>
       </c>
-      <c r="C78" s="41" t="s">
+      <c r="C78" s="40" t="s">
         <v>509</v>
       </c>
       <c r="D78" s="4"/>
@@ -6577,10 +6576,10 @@
       <c r="A89" s="14" t="s">
         <v>54</v>
       </c>
-      <c r="B89" s="40" t="s">
+      <c r="B89" s="39" t="s">
         <v>510</v>
       </c>
-      <c r="C89" s="41" t="s">
+      <c r="C89" s="40" t="s">
         <v>511</v>
       </c>
       <c r="D89" s="4"/>
@@ -6589,10 +6588,10 @@
       <c r="A90" s="14" t="s">
         <v>55</v>
       </c>
-      <c r="B90" s="40" t="s">
+      <c r="B90" s="39" t="s">
         <v>512</v>
       </c>
-      <c r="C90" s="41" t="s">
+      <c r="C90" s="40" t="s">
         <v>513</v>
       </c>
       <c r="D90" s="4"/>
@@ -6637,10 +6636,10 @@
       <c r="A94" s="14" t="s">
         <v>59</v>
       </c>
-      <c r="B94" s="40" t="s">
+      <c r="B94" s="39" t="s">
         <v>514</v>
       </c>
-      <c r="C94" s="41" t="s">
+      <c r="C94" s="40" t="s">
         <v>515</v>
       </c>
       <c r="D94" s="4"/>
@@ -7029,10 +7028,10 @@
       <c r="A128" s="14" t="s">
         <v>98</v>
       </c>
-      <c r="B128" s="40" t="s">
+      <c r="B128" s="39" t="s">
         <v>516</v>
       </c>
-      <c r="C128" s="41" t="s">
+      <c r="C128" s="40" t="s">
         <v>517</v>
       </c>
       <c r="D128" s="4"/>
@@ -7086,12 +7085,12 @@
       <c r="D132" s="4"/>
     </row>
     <row r="133" spans="1:4" ht="13.5" x14ac:dyDescent="0.15">
-      <c r="A133" s="52" t="s">
+      <c r="A133" s="63" t="s">
         <v>103</v>
       </c>
-      <c r="B133" s="52"/>
-      <c r="C133" s="52"/>
-      <c r="D133" s="52"/>
+      <c r="B133" s="63"/>
+      <c r="C133" s="63"/>
+      <c r="D133" s="63"/>
     </row>
     <row r="134" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A134" s="2" t="s">
@@ -7847,7 +7846,7 @@
       <c r="E200" s="8"/>
     </row>
     <row r="201" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A201" s="28" t="s">
+      <c r="A201" s="27" t="s">
         <v>187</v>
       </c>
       <c r="B201" s="4" t="s">
@@ -7860,11 +7859,15 @@
       <c r="E201" s="8"/>
     </row>
     <row r="202" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A202" s="28" t="s">
+      <c r="A202" s="27" t="s">
         <v>188</v>
       </c>
-      <c r="B202" s="24"/>
-      <c r="C202" s="12"/>
+      <c r="B202" s="4" t="s">
+        <v>543</v>
+      </c>
+      <c r="C202" s="11" t="s">
+        <v>542</v>
+      </c>
       <c r="D202" s="4"/>
       <c r="E202" s="8"/>
     </row>
@@ -8002,12 +8005,12 @@
       <c r="D214" s="6"/>
     </row>
     <row r="215" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A215" s="42" t="s">
+      <c r="A215" s="45" t="s">
         <v>224</v>
       </c>
-      <c r="B215" s="55"/>
-      <c r="C215" s="55"/>
-      <c r="D215" s="56"/>
+      <c r="B215" s="58"/>
+      <c r="C215" s="58"/>
+      <c r="D215" s="59"/>
     </row>
     <row r="216" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A216" s="5" t="s">
@@ -8018,12 +8021,12 @@
       <c r="D216" s="6"/>
     </row>
     <row r="217" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A217" s="42" t="s">
+      <c r="A217" s="45" t="s">
         <v>225</v>
       </c>
-      <c r="B217" s="55"/>
-      <c r="C217" s="55"/>
-      <c r="D217" s="57"/>
+      <c r="B217" s="58"/>
+      <c r="C217" s="58"/>
+      <c r="D217" s="60"/>
     </row>
     <row r="218" spans="1:4" ht="13.5" x14ac:dyDescent="0.15">
       <c r="C218"/>
@@ -11492,16 +11495,17 @@
     </row>
   </sheetData>
   <mergeCells count="42">
-    <mergeCell ref="B62:B63"/>
-    <mergeCell ref="C62:C63"/>
-    <mergeCell ref="B66:B67"/>
-    <mergeCell ref="C66:C67"/>
-    <mergeCell ref="B23:B24"/>
-    <mergeCell ref="C23:C24"/>
-    <mergeCell ref="B26:B27"/>
-    <mergeCell ref="C26:C27"/>
-    <mergeCell ref="B28:B29"/>
-    <mergeCell ref="C28:C29"/>
+    <mergeCell ref="A3:D3"/>
+    <mergeCell ref="B12:B13"/>
+    <mergeCell ref="C12:C13"/>
+    <mergeCell ref="B14:B15"/>
+    <mergeCell ref="C14:C15"/>
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="C5:C6"/>
+    <mergeCell ref="B7:B8"/>
+    <mergeCell ref="C7:C8"/>
+    <mergeCell ref="B9:B10"/>
+    <mergeCell ref="C9:C10"/>
     <mergeCell ref="B19:B20"/>
     <mergeCell ref="C19:C20"/>
     <mergeCell ref="A215:D215"/>
@@ -11518,17 +11522,16 @@
     <mergeCell ref="A69:D69"/>
     <mergeCell ref="A32:D32"/>
     <mergeCell ref="B35:B36"/>
-    <mergeCell ref="A3:D3"/>
-    <mergeCell ref="B12:B13"/>
-    <mergeCell ref="C12:C13"/>
-    <mergeCell ref="B14:B15"/>
-    <mergeCell ref="C14:C15"/>
-    <mergeCell ref="B5:B6"/>
-    <mergeCell ref="C5:C6"/>
-    <mergeCell ref="B7:B8"/>
-    <mergeCell ref="C7:C8"/>
-    <mergeCell ref="B9:B10"/>
-    <mergeCell ref="C9:C10"/>
+    <mergeCell ref="B62:B63"/>
+    <mergeCell ref="C62:C63"/>
+    <mergeCell ref="B66:B67"/>
+    <mergeCell ref="C66:C67"/>
+    <mergeCell ref="B23:B24"/>
+    <mergeCell ref="C23:C24"/>
+    <mergeCell ref="B26:B27"/>
+    <mergeCell ref="C26:C27"/>
+    <mergeCell ref="B28:B29"/>
+    <mergeCell ref="C28:C29"/>
     <mergeCell ref="B39:B40"/>
     <mergeCell ref="B53:B54"/>
     <mergeCell ref="C53:C54"/>

--- a/app/libfiles/ZE标准IO_CMM103.xlsx
+++ b/app/libfiles/ZE标准IO_CMM103.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="225" windowWidth="14805" windowHeight="7890" tabRatio="796" activeTab="3"/>
+    <workbookView xWindow="240" yWindow="225" windowWidth="14805" windowHeight="7890" tabRatio="796" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="机器信息" sheetId="6" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="617" uniqueCount="544">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="615" uniqueCount="542">
   <si>
     <t>Temperature Input(温度输入)</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -2180,13 +2180,6 @@
   </si>
   <si>
     <t>CMM102改CMM103</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Heater zone 7</t>
-  </si>
-  <si>
-    <t>加热七区</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2194,7 +2187,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2242,6 +2235,13 @@
       <name val="宋体"/>
       <family val="3"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0" tint="-0.249977111117893"/>
+      <name val="宋体"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -2404,7 +2404,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="70">
+  <cellXfs count="71">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2433,10 +2433,11 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2451,9 +2452,36 @@
     <xf numFmtId="49" fontId="4" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -2472,45 +2500,18 @@
     <xf numFmtId="49" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -4917,22 +4918,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A1" s="29" t="s">
+      <c r="A1" s="30" t="s">
         <v>494</v>
       </c>
-      <c r="B1" s="29" t="s">
+      <c r="B1" s="30" t="s">
         <v>495</v>
       </c>
-      <c r="C1" s="29" t="s">
+      <c r="C1" s="30" t="s">
         <v>496</v>
       </c>
-      <c r="D1" s="29" t="s">
+      <c r="D1" s="30" t="s">
         <v>499</v>
       </c>
-      <c r="E1" s="29" t="s">
+      <c r="E1" s="30" t="s">
         <v>497</v>
       </c>
-      <c r="F1" s="29" t="s">
+      <c r="F1" s="30" t="s">
         <v>498</v>
       </c>
     </row>
@@ -4954,59 +4955,59 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="17.25" style="29" customWidth="1"/>
-    <col min="2" max="2" width="19.25" style="29" customWidth="1"/>
-    <col min="3" max="3" width="17.125" style="29" customWidth="1"/>
-    <col min="4" max="4" width="10.75" style="29" customWidth="1"/>
-    <col min="5" max="5" width="22.375" style="29" customWidth="1"/>
+    <col min="1" max="1" width="17.25" style="30" customWidth="1"/>
+    <col min="2" max="2" width="19.25" style="30" customWidth="1"/>
+    <col min="3" max="3" width="17.125" style="30" customWidth="1"/>
+    <col min="4" max="4" width="10.75" style="30" customWidth="1"/>
+    <col min="5" max="5" width="22.375" style="30" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A1" s="29" t="s">
+      <c r="A1" s="30" t="s">
         <v>452</v>
       </c>
-      <c r="B1" s="29" t="s">
+      <c r="B1" s="30" t="s">
         <v>448</v>
       </c>
-      <c r="C1" s="29" t="s">
+      <c r="C1" s="30" t="s">
         <v>449</v>
       </c>
-      <c r="D1" s="29" t="s">
+      <c r="D1" s="30" t="s">
         <v>450</v>
       </c>
-      <c r="E1" s="29" t="s">
+      <c r="E1" s="30" t="s">
         <v>451</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A2" s="29" t="s">
+      <c r="A2" s="30" t="s">
         <v>453</v>
       </c>
-      <c r="B2" s="29" t="s">
+      <c r="B2" s="30" t="s">
         <v>505</v>
       </c>
-      <c r="C2" s="30"/>
-      <c r="D2" s="29" t="s">
+      <c r="C2" s="31"/>
+      <c r="D2" s="30" t="s">
         <v>454</v>
       </c>
-      <c r="E2" s="29" t="s">
+      <c r="E2" s="30" t="s">
         <v>455</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A3" s="29" t="s">
+      <c r="A3" s="30" t="s">
         <v>538</v>
       </c>
-      <c r="B3" s="29" t="s">
+      <c r="B3" s="30" t="s">
         <v>539</v>
       </c>
-      <c r="C3" s="29" t="s">
+      <c r="C3" s="30" t="s">
         <v>453</v>
       </c>
-      <c r="D3" s="29" t="s">
+      <c r="D3" s="30" t="s">
         <v>540</v>
       </c>
-      <c r="E3" s="29" t="s">
+      <c r="E3" s="30" t="s">
         <v>541</v>
       </c>
     </row>
@@ -5020,9 +5021,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D54"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B45" sqref="B45"/>
+      <selection pane="bottomLeft" activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -5033,366 +5034,366 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A1" s="24" t="s">
+      <c r="A1" s="25" t="s">
         <v>436</v>
       </c>
-      <c r="B1" s="24" t="s">
+      <c r="B1" s="25" t="s">
         <v>437</v>
       </c>
-      <c r="C1" s="24" t="s">
+      <c r="C1" s="25" t="s">
         <v>438</v>
       </c>
-      <c r="D1" s="25" t="s">
+      <c r="D1" s="26" t="s">
         <v>439</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A2" s="26" t="s">
+      <c r="A2" s="27" t="s">
         <v>440</v>
       </c>
-      <c r="B2" s="25"/>
-      <c r="C2" s="25"/>
-      <c r="D2" s="25"/>
+      <c r="B2" s="26"/>
+      <c r="C2" s="26"/>
+      <c r="D2" s="26"/>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A3" s="25" t="s">
+      <c r="A3" s="26" t="s">
         <v>441</v>
       </c>
-      <c r="B3" s="25" t="s">
+      <c r="B3" s="26" t="s">
         <v>442</v>
       </c>
-      <c r="C3" s="25" t="s">
+      <c r="C3" s="26" t="s">
         <v>443</v>
       </c>
-      <c r="D3" s="25" t="s">
+      <c r="D3" s="26" t="s">
         <v>444</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A4" s="25"/>
-      <c r="B4" s="25"/>
-      <c r="C4" s="25"/>
-      <c r="D4" s="25"/>
+      <c r="A4" s="26"/>
+      <c r="B4" s="26"/>
+      <c r="C4" s="26"/>
+      <c r="D4" s="26"/>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A5" s="26" t="s">
+      <c r="A5" s="27" t="s">
         <v>240</v>
       </c>
-      <c r="B5" s="25"/>
-      <c r="C5" s="25"/>
-      <c r="D5" s="25"/>
+      <c r="B5" s="26"/>
+      <c r="C5" s="26"/>
+      <c r="D5" s="26"/>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A6" s="25" t="s">
+      <c r="A6" s="26" t="s">
         <v>518</v>
       </c>
-      <c r="B6" s="25" t="s">
+      <c r="B6" s="26" t="s">
         <v>445</v>
       </c>
-      <c r="C6" s="25" t="s">
+      <c r="C6" s="26" t="s">
         <v>519</v>
       </c>
-      <c r="D6" s="25" t="s">
+      <c r="D6" s="26" t="s">
         <v>444</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A7" s="25"/>
-      <c r="B7" s="25"/>
-      <c r="C7" s="25"/>
-      <c r="D7" s="25"/>
+      <c r="A7" s="26"/>
+      <c r="B7" s="26"/>
+      <c r="C7" s="26"/>
+      <c r="D7" s="26"/>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A8" s="26" t="s">
+      <c r="A8" s="27" t="s">
         <v>504</v>
       </c>
-      <c r="B8" s="25"/>
-      <c r="C8" s="25"/>
-      <c r="D8" s="25"/>
+      <c r="B8" s="26"/>
+      <c r="C8" s="26"/>
+      <c r="D8" s="26"/>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A9" s="25"/>
-      <c r="B9" s="25"/>
-      <c r="C9" s="25"/>
-      <c r="D9" s="25"/>
+      <c r="A9" s="26"/>
+      <c r="B9" s="26"/>
+      <c r="C9" s="26"/>
+      <c r="D9" s="26"/>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A10" s="26" t="s">
+      <c r="A10" s="27" t="s">
         <v>239</v>
       </c>
-      <c r="B10" s="25"/>
-      <c r="C10" s="25"/>
-      <c r="D10" s="25"/>
+      <c r="B10" s="26"/>
+      <c r="C10" s="26"/>
+      <c r="D10" s="26"/>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A11" s="25"/>
-      <c r="B11" s="25"/>
-      <c r="C11" s="25"/>
-      <c r="D11" s="25"/>
+      <c r="A11" s="26"/>
+      <c r="B11" s="26"/>
+      <c r="C11" s="26"/>
+      <c r="D11" s="26"/>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A12" s="26" t="s">
+      <c r="A12" s="27" t="s">
         <v>241</v>
       </c>
-      <c r="B12" s="25"/>
-      <c r="C12" s="25"/>
-      <c r="D12" s="25"/>
+      <c r="B12" s="26"/>
+      <c r="C12" s="26"/>
+      <c r="D12" s="26"/>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A13" s="25"/>
-      <c r="B13" s="25"/>
-      <c r="C13" s="25"/>
-      <c r="D13" s="25"/>
+      <c r="A13" s="26"/>
+      <c r="B13" s="26"/>
+      <c r="C13" s="26"/>
+      <c r="D13" s="26"/>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A14" s="26" t="s">
+      <c r="A14" s="27" t="s">
         <v>446</v>
       </c>
-      <c r="B14" s="25"/>
-      <c r="C14" s="25"/>
-      <c r="D14" s="25"/>
+      <c r="B14" s="26"/>
+      <c r="C14" s="26"/>
+      <c r="D14" s="26"/>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A15" s="25"/>
-      <c r="B15" s="25"/>
-      <c r="C15" s="25"/>
-      <c r="D15" s="25"/>
+      <c r="A15" s="26"/>
+      <c r="B15" s="26"/>
+      <c r="C15" s="26"/>
+      <c r="D15" s="26"/>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A16" s="26" t="s">
+      <c r="A16" s="27" t="s">
         <v>447</v>
       </c>
-      <c r="B16" s="25"/>
-      <c r="C16" s="25"/>
-      <c r="D16" s="25"/>
+      <c r="B16" s="26"/>
+      <c r="C16" s="26"/>
+      <c r="D16" s="26"/>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A17" s="25"/>
-      <c r="B17" s="25"/>
-      <c r="C17" s="25"/>
-      <c r="D17" s="25"/>
+      <c r="A17" s="26"/>
+      <c r="B17" s="26"/>
+      <c r="C17" s="26"/>
+      <c r="D17" s="26"/>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A18" s="25"/>
-      <c r="B18" s="25"/>
-      <c r="C18" s="25"/>
-      <c r="D18" s="25"/>
+      <c r="A18" s="26"/>
+      <c r="B18" s="26"/>
+      <c r="C18" s="26"/>
+      <c r="D18" s="26"/>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A19" s="25"/>
-      <c r="B19" s="25"/>
-      <c r="C19" s="25"/>
-      <c r="D19" s="25"/>
+      <c r="A19" s="26"/>
+      <c r="B19" s="26"/>
+      <c r="C19" s="26"/>
+      <c r="D19" s="26"/>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A20" s="25"/>
-      <c r="B20" s="25"/>
-      <c r="C20" s="25"/>
-      <c r="D20" s="25"/>
+      <c r="A20" s="26"/>
+      <c r="B20" s="26"/>
+      <c r="C20" s="26"/>
+      <c r="D20" s="26"/>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A21" s="25"/>
-      <c r="B21" s="25"/>
-      <c r="C21" s="25"/>
-      <c r="D21" s="25"/>
+      <c r="A21" s="26"/>
+      <c r="B21" s="26"/>
+      <c r="C21" s="26"/>
+      <c r="D21" s="26"/>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A22" s="25"/>
-      <c r="B22" s="25"/>
-      <c r="C22" s="25"/>
-      <c r="D22" s="25"/>
+      <c r="A22" s="26"/>
+      <c r="B22" s="26"/>
+      <c r="C22" s="26"/>
+      <c r="D22" s="26"/>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A23" s="25"/>
-      <c r="B23" s="25"/>
-      <c r="C23" s="25"/>
-      <c r="D23" s="25"/>
+      <c r="A23" s="26"/>
+      <c r="B23" s="26"/>
+      <c r="C23" s="26"/>
+      <c r="D23" s="26"/>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A24" s="25"/>
-      <c r="B24" s="25"/>
-      <c r="C24" s="25"/>
-      <c r="D24" s="25"/>
+      <c r="A24" s="26"/>
+      <c r="B24" s="26"/>
+      <c r="C24" s="26"/>
+      <c r="D24" s="26"/>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A25" s="25"/>
-      <c r="B25" s="25"/>
-      <c r="C25" s="25"/>
-      <c r="D25" s="25"/>
+      <c r="A25" s="26"/>
+      <c r="B25" s="26"/>
+      <c r="C25" s="26"/>
+      <c r="D25" s="26"/>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A26" s="25"/>
-      <c r="B26" s="25"/>
-      <c r="C26" s="25"/>
-      <c r="D26" s="25"/>
+      <c r="A26" s="26"/>
+      <c r="B26" s="26"/>
+      <c r="C26" s="26"/>
+      <c r="D26" s="26"/>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A27" s="25"/>
-      <c r="B27" s="25"/>
-      <c r="C27" s="25"/>
-      <c r="D27" s="25"/>
+      <c r="A27" s="26"/>
+      <c r="B27" s="26"/>
+      <c r="C27" s="26"/>
+      <c r="D27" s="26"/>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A28" s="25"/>
-      <c r="B28" s="25"/>
-      <c r="C28" s="25"/>
-      <c r="D28" s="25"/>
+      <c r="A28" s="26"/>
+      <c r="B28" s="26"/>
+      <c r="C28" s="26"/>
+      <c r="D28" s="26"/>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A29" s="25"/>
-      <c r="B29" s="25"/>
-      <c r="C29" s="25"/>
-      <c r="D29" s="25"/>
+      <c r="A29" s="26"/>
+      <c r="B29" s="26"/>
+      <c r="C29" s="26"/>
+      <c r="D29" s="26"/>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A30" s="25"/>
-      <c r="B30" s="25"/>
-      <c r="C30" s="25"/>
-      <c r="D30" s="25"/>
+      <c r="A30" s="26"/>
+      <c r="B30" s="26"/>
+      <c r="C30" s="26"/>
+      <c r="D30" s="26"/>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A31" s="25"/>
-      <c r="B31" s="25"/>
-      <c r="C31" s="25"/>
-      <c r="D31" s="25"/>
+      <c r="A31" s="26"/>
+      <c r="B31" s="26"/>
+      <c r="C31" s="26"/>
+      <c r="D31" s="26"/>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A32" s="25"/>
-      <c r="B32" s="25"/>
-      <c r="C32" s="25"/>
-      <c r="D32" s="25"/>
+      <c r="A32" s="26"/>
+      <c r="B32" s="26"/>
+      <c r="C32" s="26"/>
+      <c r="D32" s="26"/>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A33" s="25"/>
-      <c r="B33" s="25"/>
-      <c r="C33" s="25"/>
-      <c r="D33" s="25"/>
+      <c r="A33" s="26"/>
+      <c r="B33" s="26"/>
+      <c r="C33" s="26"/>
+      <c r="D33" s="26"/>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A34" s="25"/>
-      <c r="B34" s="25"/>
-      <c r="C34" s="25"/>
-      <c r="D34" s="25"/>
+      <c r="A34" s="26"/>
+      <c r="B34" s="26"/>
+      <c r="C34" s="26"/>
+      <c r="D34" s="26"/>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A35" s="25"/>
-      <c r="B35" s="25"/>
-      <c r="C35" s="25"/>
-      <c r="D35" s="25"/>
+      <c r="A35" s="26"/>
+      <c r="B35" s="26"/>
+      <c r="C35" s="26"/>
+      <c r="D35" s="26"/>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A36" s="25"/>
-      <c r="B36" s="25"/>
-      <c r="C36" s="25"/>
-      <c r="D36" s="25"/>
+      <c r="A36" s="26"/>
+      <c r="B36" s="26"/>
+      <c r="C36" s="26"/>
+      <c r="D36" s="26"/>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A37" s="25"/>
-      <c r="B37" s="25"/>
-      <c r="C37" s="25"/>
-      <c r="D37" s="25"/>
+      <c r="A37" s="26"/>
+      <c r="B37" s="26"/>
+      <c r="C37" s="26"/>
+      <c r="D37" s="26"/>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A38" s="25"/>
-      <c r="B38" s="25"/>
-      <c r="C38" s="25"/>
-      <c r="D38" s="25"/>
+      <c r="A38" s="26"/>
+      <c r="B38" s="26"/>
+      <c r="C38" s="26"/>
+      <c r="D38" s="26"/>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A39" s="25"/>
-      <c r="B39" s="25"/>
-      <c r="C39" s="25"/>
-      <c r="D39" s="25"/>
+      <c r="A39" s="26"/>
+      <c r="B39" s="26"/>
+      <c r="C39" s="26"/>
+      <c r="D39" s="26"/>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A40" s="25"/>
-      <c r="B40" s="25"/>
-      <c r="C40" s="25"/>
-      <c r="D40" s="25"/>
+      <c r="A40" s="26"/>
+      <c r="B40" s="26"/>
+      <c r="C40" s="26"/>
+      <c r="D40" s="26"/>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A41" s="25"/>
-      <c r="B41" s="25"/>
-      <c r="C41" s="25"/>
-      <c r="D41" s="25"/>
+      <c r="A41" s="26"/>
+      <c r="B41" s="26"/>
+      <c r="C41" s="26"/>
+      <c r="D41" s="26"/>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A42" s="25"/>
-      <c r="B42" s="25"/>
-      <c r="C42" s="25"/>
-      <c r="D42" s="25"/>
+      <c r="A42" s="26"/>
+      <c r="B42" s="26"/>
+      <c r="C42" s="26"/>
+      <c r="D42" s="26"/>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A43" s="25"/>
-      <c r="B43" s="25"/>
-      <c r="C43" s="25"/>
-      <c r="D43" s="25"/>
+      <c r="A43" s="26"/>
+      <c r="B43" s="26"/>
+      <c r="C43" s="26"/>
+      <c r="D43" s="26"/>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A44" s="25"/>
-      <c r="B44" s="25"/>
-      <c r="C44" s="25"/>
-      <c r="D44" s="25"/>
+      <c r="A44" s="26"/>
+      <c r="B44" s="26"/>
+      <c r="C44" s="26"/>
+      <c r="D44" s="26"/>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A45" s="25"/>
-      <c r="B45" s="25"/>
-      <c r="C45" s="25"/>
-      <c r="D45" s="25"/>
+      <c r="A45" s="26"/>
+      <c r="B45" s="26"/>
+      <c r="C45" s="26"/>
+      <c r="D45" s="26"/>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A46" s="25"/>
-      <c r="B46" s="25"/>
-      <c r="C46" s="25"/>
-      <c r="D46" s="25"/>
+      <c r="A46" s="26"/>
+      <c r="B46" s="26"/>
+      <c r="C46" s="26"/>
+      <c r="D46" s="26"/>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A47" s="25"/>
-      <c r="B47" s="25"/>
-      <c r="C47" s="25"/>
-      <c r="D47" s="25"/>
+      <c r="A47" s="26"/>
+      <c r="B47" s="26"/>
+      <c r="C47" s="26"/>
+      <c r="D47" s="26"/>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A48" s="25"/>
-      <c r="B48" s="25"/>
-      <c r="C48" s="25"/>
-      <c r="D48" s="25"/>
+      <c r="A48" s="26"/>
+      <c r="B48" s="26"/>
+      <c r="C48" s="26"/>
+      <c r="D48" s="26"/>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A49" s="25"/>
-      <c r="B49" s="25"/>
-      <c r="C49" s="25"/>
-      <c r="D49" s="25"/>
+      <c r="A49" s="26"/>
+      <c r="B49" s="26"/>
+      <c r="C49" s="26"/>
+      <c r="D49" s="26"/>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A50" s="25"/>
-      <c r="B50" s="25"/>
-      <c r="C50" s="25"/>
-      <c r="D50" s="25"/>
+      <c r="A50" s="26"/>
+      <c r="B50" s="26"/>
+      <c r="C50" s="26"/>
+      <c r="D50" s="26"/>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A51" s="25"/>
-      <c r="B51" s="25"/>
-      <c r="C51" s="25"/>
-      <c r="D51" s="25"/>
+      <c r="A51" s="26"/>
+      <c r="B51" s="26"/>
+      <c r="C51" s="26"/>
+      <c r="D51" s="26"/>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A52" s="25"/>
-      <c r="B52" s="25"/>
-      <c r="C52" s="25"/>
-      <c r="D52" s="25"/>
+      <c r="A52" s="26"/>
+      <c r="B52" s="26"/>
+      <c r="C52" s="26"/>
+      <c r="D52" s="26"/>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A53" s="25"/>
-      <c r="B53" s="25"/>
-      <c r="C53" s="25"/>
-      <c r="D53" s="25"/>
+      <c r="A53" s="26"/>
+      <c r="B53" s="26"/>
+      <c r="C53" s="26"/>
+      <c r="D53" s="26"/>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A54" s="25"/>
-      <c r="B54" s="25"/>
-      <c r="C54" s="25"/>
-      <c r="D54" s="25"/>
+      <c r="A54" s="26"/>
+      <c r="B54" s="26"/>
+      <c r="C54" s="26"/>
+      <c r="D54" s="26"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -5421,178 +5422,178 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A1" s="48" t="s">
+      <c r="A1" s="45" t="s">
         <v>477</v>
       </c>
-      <c r="B1" s="48"/>
-      <c r="C1" s="48"/>
-      <c r="D1" s="48"/>
-      <c r="E1" s="29" t="s">
+      <c r="B1" s="45"/>
+      <c r="C1" s="45"/>
+      <c r="D1" s="45"/>
+      <c r="E1" s="30" t="s">
         <v>478</v>
       </c>
-      <c r="F1" s="29" t="s">
+      <c r="F1" s="30" t="s">
         <v>479</v>
       </c>
-      <c r="G1" s="29" t="s">
+      <c r="G1" s="30" t="s">
         <v>480</v>
       </c>
-      <c r="H1" s="29" t="s">
+      <c r="H1" s="30" t="s">
         <v>481</v>
       </c>
-      <c r="I1" s="29" t="s">
+      <c r="I1" s="30" t="s">
         <v>482</v>
       </c>
-      <c r="J1" s="29" t="s">
+      <c r="J1" s="30" t="s">
         <v>483</v>
       </c>
-      <c r="K1" s="29" t="s">
+      <c r="K1" s="30" t="s">
         <v>484</v>
       </c>
-      <c r="L1" s="29" t="s">
+      <c r="L1" s="30" t="s">
         <v>485</v>
       </c>
-      <c r="M1" s="29" t="s">
+      <c r="M1" s="30" t="s">
         <v>486</v>
       </c>
-      <c r="N1" s="29" t="s">
+      <c r="N1" s="30" t="s">
         <v>487</v>
       </c>
-      <c r="O1" s="29" t="s">
+      <c r="O1" s="30" t="s">
         <v>488</v>
       </c>
     </row>
     <row r="2" spans="1:15" ht="15" x14ac:dyDescent="0.25">
-      <c r="A2" s="31" t="s">
+      <c r="A2" s="32" t="s">
         <v>456</v>
       </c>
-      <c r="B2" s="32"/>
-      <c r="C2" s="33"/>
-      <c r="D2" s="34"/>
+      <c r="B2" s="33"/>
+      <c r="C2" s="34"/>
+      <c r="D2" s="35"/>
     </row>
     <row r="3" spans="1:15" ht="15" x14ac:dyDescent="0.25">
-      <c r="A3" s="35" t="s">
+      <c r="A3" s="36" t="s">
         <v>457</v>
       </c>
-      <c r="B3" s="32"/>
-      <c r="C3" s="33"/>
-      <c r="D3" s="34"/>
+      <c r="B3" s="33"/>
+      <c r="C3" s="34"/>
+      <c r="D3" s="35"/>
     </row>
     <row r="4" spans="1:15" ht="15" x14ac:dyDescent="0.25">
-      <c r="A4" s="45" t="s">
+      <c r="A4" s="42" t="s">
         <v>458</v>
       </c>
-      <c r="B4" s="46"/>
-      <c r="C4" s="46"/>
-      <c r="D4" s="47"/>
+      <c r="B4" s="43"/>
+      <c r="C4" s="43"/>
+      <c r="D4" s="44"/>
     </row>
     <row r="5" spans="1:15" ht="15" x14ac:dyDescent="0.25">
-      <c r="A5" s="35" t="s">
+      <c r="A5" s="36" t="s">
         <v>459</v>
       </c>
-      <c r="B5" s="32"/>
-      <c r="C5" s="33"/>
-      <c r="D5" s="34"/>
+      <c r="B5" s="33"/>
+      <c r="C5" s="34"/>
+      <c r="D5" s="35"/>
     </row>
     <row r="6" spans="1:15" ht="15" x14ac:dyDescent="0.25">
-      <c r="A6" s="36" t="s">
+      <c r="A6" s="37" t="s">
         <v>460</v>
       </c>
-      <c r="B6" s="36"/>
-      <c r="C6" s="36"/>
-      <c r="D6" s="36"/>
+      <c r="B6" s="37"/>
+      <c r="C6" s="37"/>
+      <c r="D6" s="37"/>
     </row>
     <row r="7" spans="1:15" ht="15" x14ac:dyDescent="0.25">
-      <c r="A7" s="35" t="s">
+      <c r="A7" s="36" t="s">
         <v>461</v>
       </c>
-      <c r="B7" s="32"/>
-      <c r="C7" s="33"/>
-      <c r="D7" s="34"/>
+      <c r="B7" s="33"/>
+      <c r="C7" s="34"/>
+      <c r="D7" s="35"/>
     </row>
     <row r="8" spans="1:15" ht="15" x14ac:dyDescent="0.25">
-      <c r="A8" s="45" t="s">
+      <c r="A8" s="42" t="s">
         <v>462</v>
       </c>
-      <c r="B8" s="46"/>
-      <c r="C8" s="46"/>
-      <c r="D8" s="49"/>
-      <c r="E8" s="37" t="s">
+      <c r="B8" s="43"/>
+      <c r="C8" s="43"/>
+      <c r="D8" s="46"/>
+      <c r="E8" s="38" t="s">
         <v>489</v>
       </c>
-      <c r="F8" s="37" t="s">
+      <c r="F8" s="38" t="s">
         <v>493</v>
       </c>
-      <c r="G8" s="37" t="s">
+      <c r="G8" s="38" t="s">
         <v>490</v>
       </c>
-      <c r="H8" s="37" t="s">
+      <c r="H8" s="38" t="s">
         <v>491</v>
       </c>
-      <c r="I8" s="37" t="s">
+      <c r="I8" s="38" t="s">
         <v>492</v>
       </c>
-      <c r="J8" s="38"/>
-      <c r="K8" s="38"/>
-      <c r="L8" s="38"/>
-      <c r="M8" s="38"/>
-      <c r="N8" s="38"/>
-      <c r="O8" s="38"/>
+      <c r="J8" s="39"/>
+      <c r="K8" s="39"/>
+      <c r="L8" s="39"/>
+      <c r="M8" s="39"/>
+      <c r="N8" s="39"/>
+      <c r="O8" s="39"/>
     </row>
     <row r="9" spans="1:15" ht="15" x14ac:dyDescent="0.25">
-      <c r="A9" s="35" t="s">
+      <c r="A9" s="36" t="s">
         <v>463</v>
       </c>
-      <c r="B9" s="32"/>
-      <c r="C9" s="33"/>
-      <c r="D9" s="34"/>
+      <c r="B9" s="33"/>
+      <c r="C9" s="34"/>
+      <c r="D9" s="35"/>
     </row>
     <row r="10" spans="1:15" ht="15" x14ac:dyDescent="0.25">
-      <c r="A10" s="36" t="s">
+      <c r="A10" s="37" t="s">
         <v>464</v>
       </c>
-      <c r="B10" s="36"/>
-      <c r="C10" s="36"/>
-      <c r="D10" s="36"/>
+      <c r="B10" s="37"/>
+      <c r="C10" s="37"/>
+      <c r="D10" s="37"/>
     </row>
     <row r="11" spans="1:15" ht="15" x14ac:dyDescent="0.25">
-      <c r="A11" s="35" t="s">
+      <c r="A11" s="36" t="s">
         <v>465</v>
       </c>
-      <c r="B11" s="32"/>
-      <c r="C11" s="33"/>
-      <c r="D11" s="34"/>
+      <c r="B11" s="33"/>
+      <c r="C11" s="34"/>
+      <c r="D11" s="35"/>
     </row>
     <row r="12" spans="1:15" ht="15" x14ac:dyDescent="0.25">
-      <c r="A12" s="45" t="s">
+      <c r="A12" s="42" t="s">
         <v>466</v>
       </c>
-      <c r="B12" s="46"/>
-      <c r="C12" s="46"/>
-      <c r="D12" s="47"/>
+      <c r="B12" s="43"/>
+      <c r="C12" s="43"/>
+      <c r="D12" s="44"/>
     </row>
     <row r="13" spans="1:15" ht="15" x14ac:dyDescent="0.25">
-      <c r="A13" s="35" t="s">
+      <c r="A13" s="36" t="s">
         <v>467</v>
       </c>
-      <c r="B13" s="32"/>
-      <c r="C13" s="33"/>
-      <c r="D13" s="34"/>
+      <c r="B13" s="33"/>
+      <c r="C13" s="34"/>
+      <c r="D13" s="35"/>
     </row>
     <row r="14" spans="1:15" ht="15" x14ac:dyDescent="0.25">
-      <c r="A14" s="45" t="s">
+      <c r="A14" s="42" t="s">
         <v>468</v>
       </c>
-      <c r="B14" s="46"/>
-      <c r="C14" s="46"/>
-      <c r="D14" s="47"/>
+      <c r="B14" s="43"/>
+      <c r="C14" s="43"/>
+      <c r="D14" s="44"/>
     </row>
     <row r="15" spans="1:15" ht="15" x14ac:dyDescent="0.25">
-      <c r="A15" s="35" t="s">
+      <c r="A15" s="36" t="s">
         <v>469</v>
       </c>
-      <c r="B15" s="32"/>
-      <c r="C15" s="33"/>
-      <c r="D15" s="34"/>
+      <c r="B15" s="33"/>
+      <c r="C15" s="34"/>
+      <c r="D15" s="35"/>
     </row>
     <row r="16" spans="1:15" ht="15" x14ac:dyDescent="0.25">
       <c r="A16" s="13" t="s">
@@ -5619,20 +5620,20 @@
       <c r="D17" s="4"/>
     </row>
     <row r="18" spans="1:4" ht="15" x14ac:dyDescent="0.25">
-      <c r="A18" s="35" t="s">
+      <c r="A18" s="36" t="s">
         <v>475</v>
       </c>
-      <c r="B18" s="32"/>
-      <c r="C18" s="33"/>
-      <c r="D18" s="34"/>
+      <c r="B18" s="33"/>
+      <c r="C18" s="34"/>
+      <c r="D18" s="35"/>
     </row>
     <row r="19" spans="1:4" ht="15" x14ac:dyDescent="0.25">
-      <c r="A19" s="45" t="s">
+      <c r="A19" s="42" t="s">
         <v>476</v>
       </c>
-      <c r="B19" s="46"/>
-      <c r="C19" s="46"/>
-      <c r="D19" s="47"/>
+      <c r="B19" s="43"/>
+      <c r="C19" s="43"/>
+      <c r="D19" s="44"/>
     </row>
   </sheetData>
   <mergeCells count="6">
@@ -5652,12 +5653,12 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E795"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="4" ySplit="1" topLeftCell="E188" activePane="bottomRight" state="frozenSplit"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="4" ySplit="1" topLeftCell="E14" activePane="bottomRight" state="frozenSplit"/>
       <selection sqref="A1:D1"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B202" sqref="B202"/>
+      <selection pane="bottomRight" activeCell="B214" sqref="B214"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5678,7 +5679,7 @@
       <c r="C1" s="15" t="s">
         <v>64</v>
       </c>
-      <c r="D1" s="28" t="s">
+      <c r="D1" s="29" t="s">
         <v>435</v>
       </c>
     </row>
@@ -5691,12 +5692,12 @@
       <c r="D2" s="21"/>
     </row>
     <row r="3" spans="1:4" ht="13.5" x14ac:dyDescent="0.15">
-      <c r="A3" s="63" t="s">
+      <c r="A3" s="52" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="66"/>
-      <c r="C3" s="66"/>
-      <c r="D3" s="66"/>
+      <c r="B3" s="53"/>
+      <c r="C3" s="53"/>
+      <c r="D3" s="53"/>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
@@ -5710,10 +5711,10 @@
       <c r="A5" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="56" t="s">
+      <c r="B5" s="47" t="s">
         <v>213</v>
       </c>
-      <c r="C5" s="57" t="s">
+      <c r="C5" s="54" t="s">
         <v>8</v>
       </c>
       <c r="D5" s="4"/>
@@ -5722,18 +5723,18 @@
       <c r="A6" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="B6" s="56"/>
-      <c r="C6" s="57"/>
+      <c r="B6" s="47"/>
+      <c r="C6" s="54"/>
       <c r="D6" s="4"/>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="B7" s="56" t="s">
+      <c r="B7" s="47" t="s">
         <v>214</v>
       </c>
-      <c r="C7" s="57" t="s">
+      <c r="C7" s="54" t="s">
         <v>9</v>
       </c>
       <c r="D7" s="4"/>
@@ -5742,18 +5743,18 @@
       <c r="A8" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="B8" s="56"/>
-      <c r="C8" s="57"/>
+      <c r="B8" s="47"/>
+      <c r="C8" s="54"/>
       <c r="D8" s="4"/>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="B9" s="56" t="s">
+      <c r="B9" s="47" t="s">
         <v>215</v>
       </c>
-      <c r="C9" s="57" t="s">
+      <c r="C9" s="54" t="s">
         <v>10</v>
       </c>
       <c r="D9" s="4"/>
@@ -5762,8 +5763,8 @@
       <c r="A10" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="B10" s="56"/>
-      <c r="C10" s="57"/>
+      <c r="B10" s="47"/>
+      <c r="C10" s="54"/>
       <c r="D10" s="4"/>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
@@ -5778,10 +5779,10 @@
       <c r="A12" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="B12" s="56" t="s">
+      <c r="B12" s="47" t="s">
         <v>216</v>
       </c>
-      <c r="C12" s="57" t="s">
+      <c r="C12" s="54" t="s">
         <v>11</v>
       </c>
       <c r="D12" s="4"/>
@@ -5790,18 +5791,18 @@
       <c r="A13" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="B13" s="56"/>
-      <c r="C13" s="57"/>
+      <c r="B13" s="47"/>
+      <c r="C13" s="54"/>
       <c r="D13" s="4"/>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="B14" s="56" t="s">
+      <c r="B14" s="47" t="s">
         <v>217</v>
       </c>
-      <c r="C14" s="57" t="s">
+      <c r="C14" s="54" t="s">
         <v>12</v>
       </c>
       <c r="D14" s="4"/>
@@ -5810,18 +5811,18 @@
       <c r="A15" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="B15" s="56"/>
-      <c r="C15" s="57"/>
+      <c r="B15" s="47"/>
+      <c r="C15" s="54"/>
       <c r="D15" s="4"/>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="B16" s="56" t="s">
+      <c r="B16" s="47" t="s">
         <v>501</v>
       </c>
-      <c r="C16" s="57" t="s">
+      <c r="C16" s="54" t="s">
         <v>500</v>
       </c>
       <c r="D16" s="4"/>
@@ -5830,8 +5831,8 @@
       <c r="A17" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="B17" s="56"/>
-      <c r="C17" s="57"/>
+      <c r="B17" s="47"/>
+      <c r="C17" s="54"/>
       <c r="D17" s="4"/>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
@@ -5846,10 +5847,10 @@
       <c r="A19" s="12" t="s">
         <v>233</v>
       </c>
-      <c r="B19" s="56" t="s">
+      <c r="B19" s="47" t="s">
         <v>434</v>
       </c>
-      <c r="C19" s="57" t="s">
+      <c r="C19" s="54" t="s">
         <v>433</v>
       </c>
       <c r="D19" s="4"/>
@@ -5859,8 +5860,8 @@
       <c r="A20" s="12" t="s">
         <v>234</v>
       </c>
-      <c r="B20" s="56"/>
-      <c r="C20" s="57"/>
+      <c r="B20" s="47"/>
+      <c r="C20" s="54"/>
       <c r="D20" s="4"/>
       <c r="E20" s="23"/>
     </row>
@@ -5868,10 +5869,10 @@
       <c r="A21" s="11" t="s">
         <v>235</v>
       </c>
-      <c r="B21" s="56" t="s">
+      <c r="B21" s="47" t="s">
         <v>242</v>
       </c>
-      <c r="C21" s="57" t="s">
+      <c r="C21" s="54" t="s">
         <v>243</v>
       </c>
       <c r="D21" s="4"/>
@@ -5880,18 +5881,18 @@
       <c r="A22" s="11" t="s">
         <v>236</v>
       </c>
-      <c r="B22" s="56"/>
-      <c r="C22" s="57"/>
+      <c r="B22" s="47"/>
+      <c r="C22" s="54"/>
       <c r="D22" s="4"/>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" s="11" t="s">
         <v>521</v>
       </c>
-      <c r="B23" s="54" t="s">
+      <c r="B23" s="61" t="s">
         <v>522</v>
       </c>
-      <c r="C23" s="55" t="s">
+      <c r="C23" s="62" t="s">
         <v>523</v>
       </c>
       <c r="D23" s="4"/>
@@ -5900,58 +5901,58 @@
       <c r="A24" s="11" t="s">
         <v>524</v>
       </c>
-      <c r="B24" s="54"/>
-      <c r="C24" s="55"/>
+      <c r="B24" s="61"/>
+      <c r="C24" s="62"/>
       <c r="D24" s="4"/>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
         <v>525</v>
       </c>
-      <c r="B25" s="41"/>
-      <c r="C25" s="42"/>
+      <c r="B25" s="63"/>
+      <c r="C25" s="64"/>
       <c r="D25" s="3"/>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" s="11" t="s">
         <v>526</v>
       </c>
-      <c r="B26" s="54"/>
-      <c r="C26" s="55"/>
+      <c r="B26" s="61"/>
+      <c r="C26" s="62"/>
       <c r="D26" s="4"/>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" s="11" t="s">
         <v>527</v>
       </c>
-      <c r="B27" s="54"/>
-      <c r="C27" s="55"/>
+      <c r="B27" s="61"/>
+      <c r="C27" s="62"/>
       <c r="D27" s="4"/>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" s="11" t="s">
         <v>528</v>
       </c>
-      <c r="B28" s="54"/>
-      <c r="C28" s="55"/>
+      <c r="B28" s="61"/>
+      <c r="C28" s="62"/>
       <c r="D28" s="4"/>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" s="11" t="s">
         <v>529</v>
       </c>
-      <c r="B29" s="54"/>
-      <c r="C29" s="55"/>
+      <c r="B29" s="61"/>
+      <c r="C29" s="62"/>
       <c r="D29" s="4"/>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" s="12" t="s">
         <v>237</v>
       </c>
-      <c r="B30" s="61" t="s">
+      <c r="B30" s="58" t="s">
         <v>20</v>
       </c>
-      <c r="C30" s="62" t="s">
+      <c r="C30" s="59" t="s">
         <v>21</v>
       </c>
       <c r="D30" s="4"/>
@@ -5960,17 +5961,17 @@
       <c r="A31" s="12" t="s">
         <v>238</v>
       </c>
-      <c r="B31" s="61"/>
-      <c r="C31" s="62"/>
+      <c r="B31" s="58"/>
+      <c r="C31" s="59"/>
       <c r="D31" s="4"/>
     </row>
     <row r="32" spans="1:5" ht="13.5" x14ac:dyDescent="0.15">
-      <c r="A32" s="63" t="s">
+      <c r="A32" s="52" t="s">
         <v>200</v>
       </c>
-      <c r="B32" s="63"/>
-      <c r="C32" s="63"/>
-      <c r="D32" s="63"/>
+      <c r="B32" s="52"/>
+      <c r="C32" s="52"/>
+      <c r="D32" s="52"/>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="s">
@@ -5996,10 +5997,10 @@
       <c r="A35" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="B35" s="56" t="s">
+      <c r="B35" s="47" t="s">
         <v>244</v>
       </c>
-      <c r="C35" s="64" t="s">
+      <c r="C35" s="60" t="s">
         <v>245</v>
       </c>
       <c r="D35" s="4"/>
@@ -6008,8 +6009,8 @@
       <c r="A36" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="B36" s="56"/>
-      <c r="C36" s="65"/>
+      <c r="B36" s="47"/>
+      <c r="C36" s="51"/>
       <c r="D36" s="4"/>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
@@ -6040,10 +6041,10 @@
       <c r="A39" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="B39" s="56" t="s">
+      <c r="B39" s="47" t="s">
         <v>246</v>
       </c>
-      <c r="C39" s="64" t="s">
+      <c r="C39" s="60" t="s">
         <v>247</v>
       </c>
       <c r="D39" s="4"/>
@@ -6052,8 +6053,8 @@
       <c r="A40" s="14" t="s">
         <v>29</v>
       </c>
-      <c r="B40" s="56"/>
-      <c r="C40" s="65"/>
+      <c r="B40" s="47"/>
+      <c r="C40" s="51"/>
       <c r="D40" s="4"/>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
@@ -6188,10 +6189,10 @@
       <c r="A53" s="14" t="s">
         <v>204</v>
       </c>
-      <c r="B53" s="67" t="s">
+      <c r="B53" s="48" t="s">
         <v>252</v>
       </c>
-      <c r="C53" s="69" t="s">
+      <c r="C53" s="50" t="s">
         <v>253</v>
       </c>
       <c r="D53" s="4"/>
@@ -6200,8 +6201,8 @@
       <c r="A54" s="14" t="s">
         <v>205</v>
       </c>
-      <c r="B54" s="68"/>
-      <c r="C54" s="65"/>
+      <c r="B54" s="49"/>
+      <c r="C54" s="51"/>
       <c r="D54" s="4"/>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.25">
@@ -6232,10 +6233,10 @@
       <c r="A57" s="14" t="s">
         <v>206</v>
       </c>
-      <c r="B57" s="67" t="s">
+      <c r="B57" s="48" t="s">
         <v>254</v>
       </c>
-      <c r="C57" s="69" t="s">
+      <c r="C57" s="50" t="s">
         <v>249</v>
       </c>
       <c r="D57" s="4"/>
@@ -6244,8 +6245,8 @@
       <c r="A58" s="14" t="s">
         <v>207</v>
       </c>
-      <c r="B58" s="68"/>
-      <c r="C58" s="65"/>
+      <c r="B58" s="49"/>
+      <c r="C58" s="51"/>
       <c r="D58" s="4"/>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.25">
@@ -6264,18 +6265,18 @@
       <c r="A60" s="2" t="s">
         <v>530</v>
       </c>
-      <c r="B60" s="41"/>
-      <c r="C60" s="42"/>
+      <c r="B60" s="63"/>
+      <c r="C60" s="64"/>
       <c r="D60" s="3"/>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A61" s="13" t="s">
         <v>531</v>
       </c>
-      <c r="B61" s="43" t="s">
+      <c r="B61" s="65" t="s">
         <v>202</v>
       </c>
-      <c r="C61" s="44" t="s">
+      <c r="C61" s="66" t="s">
         <v>201</v>
       </c>
       <c r="D61" s="4"/>
@@ -6284,26 +6285,26 @@
       <c r="A62" s="14" t="s">
         <v>532</v>
       </c>
-      <c r="B62" s="50"/>
-      <c r="C62" s="52"/>
+      <c r="B62" s="67"/>
+      <c r="C62" s="68"/>
       <c r="D62" s="4"/>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A63" s="14" t="s">
         <v>533</v>
       </c>
-      <c r="B63" s="51"/>
-      <c r="C63" s="53"/>
+      <c r="B63" s="69"/>
+      <c r="C63" s="70"/>
       <c r="D63" s="4"/>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A64" s="13" t="s">
         <v>534</v>
       </c>
-      <c r="B64" s="43" t="s">
+      <c r="B64" s="65" t="s">
         <v>203</v>
       </c>
-      <c r="C64" s="44" t="s">
+      <c r="C64" s="66" t="s">
         <v>534</v>
       </c>
       <c r="D64" s="4"/>
@@ -6312,10 +6313,10 @@
       <c r="A65" s="13" t="s">
         <v>531</v>
       </c>
-      <c r="B65" s="43" t="s">
+      <c r="B65" s="65" t="s">
         <v>202</v>
       </c>
-      <c r="C65" s="44" t="s">
+      <c r="C65" s="66" t="s">
         <v>201</v>
       </c>
       <c r="D65" s="4"/>
@@ -6324,37 +6325,37 @@
       <c r="A66" s="14" t="s">
         <v>535</v>
       </c>
-      <c r="B66" s="50"/>
-      <c r="C66" s="52"/>
+      <c r="B66" s="67"/>
+      <c r="C66" s="68"/>
       <c r="D66" s="4"/>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A67" s="14" t="s">
         <v>536</v>
       </c>
-      <c r="B67" s="51"/>
-      <c r="C67" s="53"/>
+      <c r="B67" s="69"/>
+      <c r="C67" s="70"/>
       <c r="D67" s="4"/>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A68" s="13" t="s">
         <v>534</v>
       </c>
-      <c r="B68" s="43" t="s">
+      <c r="B68" s="65" t="s">
         <v>203</v>
       </c>
-      <c r="C68" s="44" t="s">
+      <c r="C68" s="66" t="s">
         <v>534</v>
       </c>
       <c r="D68" s="4"/>
     </row>
     <row r="69" spans="1:4" ht="13.5" x14ac:dyDescent="0.15">
-      <c r="A69" s="63" t="s">
+      <c r="A69" s="52" t="s">
         <v>36</v>
       </c>
-      <c r="B69" s="63"/>
-      <c r="C69" s="63"/>
-      <c r="D69" s="63"/>
+      <c r="B69" s="52"/>
+      <c r="C69" s="52"/>
+      <c r="D69" s="52"/>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A70" s="2" t="s">
@@ -6428,10 +6429,10 @@
       <c r="A76" s="14" t="s">
         <v>42</v>
       </c>
-      <c r="B76" s="39" t="s">
+      <c r="B76" s="40" t="s">
         <v>506</v>
       </c>
-      <c r="C76" s="40" t="s">
+      <c r="C76" s="41" t="s">
         <v>507</v>
       </c>
       <c r="D76" s="4"/>
@@ -6452,10 +6453,10 @@
       <c r="A78" s="14" t="s">
         <v>44</v>
       </c>
-      <c r="B78" s="39" t="s">
+      <c r="B78" s="40" t="s">
         <v>508</v>
       </c>
-      <c r="C78" s="40" t="s">
+      <c r="C78" s="41" t="s">
         <v>509</v>
       </c>
       <c r="D78" s="4"/>
@@ -6576,10 +6577,10 @@
       <c r="A89" s="14" t="s">
         <v>54</v>
       </c>
-      <c r="B89" s="39" t="s">
+      <c r="B89" s="40" t="s">
         <v>510</v>
       </c>
-      <c r="C89" s="40" t="s">
+      <c r="C89" s="41" t="s">
         <v>511</v>
       </c>
       <c r="D89" s="4"/>
@@ -6588,10 +6589,10 @@
       <c r="A90" s="14" t="s">
         <v>55</v>
       </c>
-      <c r="B90" s="39" t="s">
+      <c r="B90" s="40" t="s">
         <v>512</v>
       </c>
-      <c r="C90" s="40" t="s">
+      <c r="C90" s="41" t="s">
         <v>513</v>
       </c>
       <c r="D90" s="4"/>
@@ -6636,10 +6637,10 @@
       <c r="A94" s="14" t="s">
         <v>59</v>
       </c>
-      <c r="B94" s="39" t="s">
+      <c r="B94" s="40" t="s">
         <v>514</v>
       </c>
-      <c r="C94" s="40" t="s">
+      <c r="C94" s="41" t="s">
         <v>515</v>
       </c>
       <c r="D94" s="4"/>
@@ -7028,10 +7029,10 @@
       <c r="A128" s="14" t="s">
         <v>98</v>
       </c>
-      <c r="B128" s="39" t="s">
+      <c r="B128" s="40" t="s">
         <v>516</v>
       </c>
-      <c r="C128" s="40" t="s">
+      <c r="C128" s="41" t="s">
         <v>517</v>
       </c>
       <c r="D128" s="4"/>
@@ -7085,12 +7086,12 @@
       <c r="D132" s="4"/>
     </row>
     <row r="133" spans="1:4" ht="13.5" x14ac:dyDescent="0.15">
-      <c r="A133" s="63" t="s">
+      <c r="A133" s="52" t="s">
         <v>103</v>
       </c>
-      <c r="B133" s="63"/>
-      <c r="C133" s="63"/>
-      <c r="D133" s="63"/>
+      <c r="B133" s="52"/>
+      <c r="C133" s="52"/>
+      <c r="D133" s="52"/>
     </row>
     <row r="134" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A134" s="2" t="s">
@@ -7846,7 +7847,7 @@
       <c r="E200" s="8"/>
     </row>
     <row r="201" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A201" s="27" t="s">
+      <c r="A201" s="28" t="s">
         <v>187</v>
       </c>
       <c r="B201" s="4" t="s">
@@ -7859,15 +7860,11 @@
       <c r="E201" s="8"/>
     </row>
     <row r="202" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A202" s="27" t="s">
+      <c r="A202" s="28" t="s">
         <v>188</v>
       </c>
-      <c r="B202" s="4" t="s">
-        <v>543</v>
-      </c>
-      <c r="C202" s="11" t="s">
-        <v>542</v>
-      </c>
+      <c r="B202" s="24"/>
+      <c r="C202" s="12"/>
       <c r="D202" s="4"/>
       <c r="E202" s="8"/>
     </row>
@@ -8005,12 +8002,12 @@
       <c r="D214" s="6"/>
     </row>
     <row r="215" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A215" s="45" t="s">
+      <c r="A215" s="42" t="s">
         <v>224</v>
       </c>
-      <c r="B215" s="58"/>
-      <c r="C215" s="58"/>
-      <c r="D215" s="59"/>
+      <c r="B215" s="55"/>
+      <c r="C215" s="55"/>
+      <c r="D215" s="56"/>
     </row>
     <row r="216" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A216" s="5" t="s">
@@ -8021,12 +8018,12 @@
       <c r="D216" s="6"/>
     </row>
     <row r="217" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A217" s="45" t="s">
+      <c r="A217" s="42" t="s">
         <v>225</v>
       </c>
-      <c r="B217" s="58"/>
-      <c r="C217" s="58"/>
-      <c r="D217" s="60"/>
+      <c r="B217" s="55"/>
+      <c r="C217" s="55"/>
+      <c r="D217" s="57"/>
     </row>
     <row r="218" spans="1:4" ht="13.5" x14ac:dyDescent="0.15">
       <c r="C218"/>
@@ -11495,17 +11492,16 @@
     </row>
   </sheetData>
   <mergeCells count="42">
-    <mergeCell ref="A3:D3"/>
-    <mergeCell ref="B12:B13"/>
-    <mergeCell ref="C12:C13"/>
-    <mergeCell ref="B14:B15"/>
-    <mergeCell ref="C14:C15"/>
-    <mergeCell ref="B5:B6"/>
-    <mergeCell ref="C5:C6"/>
-    <mergeCell ref="B7:B8"/>
-    <mergeCell ref="C7:C8"/>
-    <mergeCell ref="B9:B10"/>
-    <mergeCell ref="C9:C10"/>
+    <mergeCell ref="B62:B63"/>
+    <mergeCell ref="C62:C63"/>
+    <mergeCell ref="B66:B67"/>
+    <mergeCell ref="C66:C67"/>
+    <mergeCell ref="B23:B24"/>
+    <mergeCell ref="C23:C24"/>
+    <mergeCell ref="B26:B27"/>
+    <mergeCell ref="C26:C27"/>
+    <mergeCell ref="B28:B29"/>
+    <mergeCell ref="C28:C29"/>
     <mergeCell ref="B19:B20"/>
     <mergeCell ref="C19:C20"/>
     <mergeCell ref="A215:D215"/>
@@ -11522,16 +11518,17 @@
     <mergeCell ref="A69:D69"/>
     <mergeCell ref="A32:D32"/>
     <mergeCell ref="B35:B36"/>
-    <mergeCell ref="B62:B63"/>
-    <mergeCell ref="C62:C63"/>
-    <mergeCell ref="B66:B67"/>
-    <mergeCell ref="C66:C67"/>
-    <mergeCell ref="B23:B24"/>
-    <mergeCell ref="C23:C24"/>
-    <mergeCell ref="B26:B27"/>
-    <mergeCell ref="C26:C27"/>
-    <mergeCell ref="B28:B29"/>
-    <mergeCell ref="C28:C29"/>
+    <mergeCell ref="A3:D3"/>
+    <mergeCell ref="B12:B13"/>
+    <mergeCell ref="C12:C13"/>
+    <mergeCell ref="B14:B15"/>
+    <mergeCell ref="C14:C15"/>
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="C5:C6"/>
+    <mergeCell ref="B7:B8"/>
+    <mergeCell ref="C7:C8"/>
+    <mergeCell ref="B9:B10"/>
+    <mergeCell ref="C9:C10"/>
     <mergeCell ref="B39:B40"/>
     <mergeCell ref="B53:B54"/>
     <mergeCell ref="C53:C54"/>
